--- a/experiments/real_data_experiments/results/results_single_layers.xlsx
+++ b/experiments/real_data_experiments/results/results_single_layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzne\Documents\ACTIVE_PROJECTS\research\experiments\real_data_experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAAC968-06AF-4942-B8C8-68CB73374575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F3B521-439E-4F2B-9EFA-82F0FAB09810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D3DA8771-1432-4179-AD61-E06224215FC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="38">
   <si>
     <t>Air_Train</t>
   </si>
@@ -125,16 +125,31 @@
     <t>YeastLandscape_Multiplex_Genetic</t>
   </si>
   <si>
-    <t>CovMulNet19</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
     <t>Layer</t>
   </si>
   <si>
-    <t>CovMulNet20</t>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Neural</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Genetic</t>
   </si>
 </sst>
 </file>
@@ -193,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -574,11 +589,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,18 +826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,6 +908,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94755FB-9259-4D0E-981D-300B3D3492BC}">
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:J457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,15 +1260,16 @@
     <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -1223,10 +1290,13 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1256,8 +1326,11 @@
       <c r="I2" s="28">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1287,8 +1360,11 @@
       <c r="I3" s="29">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -1318,8 +1394,11 @@
       <c r="I4" s="29">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1428,11 @@
       <c r="I5" s="30">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -1380,8 +1462,11 @@
       <c r="I6" s="31">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -1411,8 +1496,11 @@
       <c r="I7" s="32">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
@@ -1442,8 +1530,11 @@
       <c r="I8" s="32">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
@@ -1473,163 +1564,181 @@
       <c r="I9" s="46">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="72">
-        <v>1</v>
-      </c>
-      <c r="C10" s="72">
+      <c r="J9" s="91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="68">
+        <v>1</v>
+      </c>
+      <c r="C10" s="68">
         <v>2956</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="69">
         <v>213</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="69">
         <f t="shared" si="0"/>
         <v>7.2056833558863331E-2</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="69">
         <v>1537</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="69">
         <f t="shared" si="1"/>
         <v>0.51995940460081191</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="68">
         <v>5</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="70">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="77">
-        <v>1</v>
-      </c>
-      <c r="C11" s="77">
+      <c r="J10" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="73">
+        <v>1</v>
+      </c>
+      <c r="C11" s="73">
         <v>2956</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="74">
         <v>74</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="74">
         <f t="shared" si="0"/>
         <v>2.503382949932341E-2</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="74">
         <v>529</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="74">
         <f t="shared" si="1"/>
         <v>0.17895805142083898</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="73">
         <v>5</v>
       </c>
-      <c r="I11" s="79">
+      <c r="I11" s="75">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="77">
-        <v>1</v>
-      </c>
-      <c r="C12" s="77">
+      <c r="J11" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="73">
+        <v>1</v>
+      </c>
+      <c r="C12" s="73">
         <v>2956</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="74">
         <v>32</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="74">
         <f t="shared" si="0"/>
         <v>1.0825439783491205E-2</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="74">
         <v>205</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="74">
         <f t="shared" si="1"/>
         <v>6.9350473612990529E-2</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="73">
         <v>5</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="75">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="77">
-        <v>1</v>
-      </c>
-      <c r="C13" s="77">
+      <c r="J12" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="73">
+        <v>1</v>
+      </c>
+      <c r="C13" s="73">
         <v>2956</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="74">
         <v>5</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="74">
         <f t="shared" si="0"/>
         <v>1.6914749661705007E-3</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="74">
         <v>55</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="74">
         <f t="shared" si="1"/>
         <v>1.8606224627875506E-2</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="73">
         <v>5</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="75">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="81">
-        <v>1</v>
-      </c>
-      <c r="C14" s="81">
+      <c r="J13" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="77">
+        <v>1</v>
+      </c>
+      <c r="C14" s="77">
         <v>2956</v>
       </c>
-      <c r="D14" s="82">
-        <v>0</v>
-      </c>
-      <c r="E14" s="82">
+      <c r="D14" s="78">
+        <v>0</v>
+      </c>
+      <c r="E14" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="78">
         <v>45</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="78">
         <f t="shared" si="1"/>
         <v>1.5223274695534507E-2</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="77">
         <v>5</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="79">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>1</v>
       </c>
@@ -1659,8 +1768,11 @@
       <c r="I15" s="50">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>1</v>
       </c>
@@ -1690,8 +1802,11 @@
       <c r="I16" s="51">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>1</v>
       </c>
@@ -1721,8 +1836,11 @@
       <c r="I17" s="51">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>1</v>
       </c>
@@ -1752,8 +1870,11 @@
       <c r="I18" s="51">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>1</v>
       </c>
@@ -1783,8 +1904,11 @@
       <c r="I19" s="51">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>1</v>
       </c>
@@ -1814,8 +1938,11 @@
       <c r="I20" s="51">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>1</v>
       </c>
@@ -1845,8 +1972,11 @@
       <c r="I21" s="52">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>1</v>
       </c>
@@ -1876,8 +2006,11 @@
       <c r="I22" s="50">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>1</v>
       </c>
@@ -1907,8 +2040,11 @@
       <c r="I23" s="52">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>1</v>
       </c>
@@ -1938,8 +2074,11 @@
       <c r="I24" s="50">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>1</v>
       </c>
@@ -1969,8 +2108,11 @@
       <c r="I25" s="51">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>1</v>
       </c>
@@ -2000,8 +2142,11 @@
       <c r="I26" s="51">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>1</v>
       </c>
@@ -2031,8 +2176,11 @@
       <c r="I27" s="51">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>1</v>
       </c>
@@ -2062,8 +2210,11 @@
       <c r="I28" s="51">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>1</v>
       </c>
@@ -2093,8 +2244,11 @@
       <c r="I29" s="51">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
         <v>1</v>
       </c>
@@ -2124,8 +2278,11 @@
       <c r="I30" s="51">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>1</v>
       </c>
@@ -2155,8 +2312,11 @@
       <c r="I31" s="52">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>1</v>
       </c>
@@ -2186,8 +2346,11 @@
       <c r="I32" s="50">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>1</v>
       </c>
@@ -2217,8 +2380,11 @@
       <c r="I33" s="51">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>1</v>
       </c>
@@ -2248,8 +2414,11 @@
       <c r="I34" s="51">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
         <v>1</v>
       </c>
@@ -2279,8 +2448,11 @@
       <c r="I35" s="51">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>1</v>
       </c>
@@ -2310,8 +2482,11 @@
       <c r="I36" s="52">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>1</v>
       </c>
@@ -2341,8 +2516,11 @@
       <c r="I37" s="47">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>1</v>
       </c>
@@ -2372,8 +2550,11 @@
       <c r="I38" s="48">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J38" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
         <v>1</v>
       </c>
@@ -2403,132 +2584,147 @@
       <c r="I39" s="49">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="72">
+      <c r="J39" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="68">
         <v>7</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="68">
         <v>1905</v>
       </c>
-      <c r="D40" s="73">
+      <c r="D40" s="69">
         <v>92</v>
       </c>
-      <c r="E40" s="73">
+      <c r="E40" s="69">
         <f t="shared" si="6"/>
         <v>4.8293963254593175E-2</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F40" s="69">
         <v>648</v>
       </c>
-      <c r="G40" s="73">
+      <c r="G40" s="69">
         <f t="shared" si="7"/>
         <v>0.34015748031496063</v>
       </c>
-      <c r="H40" s="72">
+      <c r="H40" s="68">
         <v>4</v>
       </c>
-      <c r="I40" s="74">
+      <c r="I40" s="70">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="77">
+      <c r="J40" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="73">
         <v>7</v>
       </c>
-      <c r="C41" s="77">
+      <c r="C41" s="73">
         <v>1905</v>
       </c>
-      <c r="D41" s="78">
+      <c r="D41" s="74">
         <v>5</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="74">
         <f t="shared" si="6"/>
         <v>2.6246719160104987E-3</v>
       </c>
-      <c r="F41" s="78">
+      <c r="F41" s="74">
         <v>48</v>
       </c>
-      <c r="G41" s="78">
+      <c r="G41" s="74">
         <f t="shared" si="7"/>
         <v>2.5196850393700787E-2</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="73">
         <v>4</v>
       </c>
-      <c r="I41" s="79">
+      <c r="I41" s="75">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="77">
+      <c r="J41" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="73">
         <v>7</v>
       </c>
-      <c r="C42" s="77">
+      <c r="C42" s="73">
         <v>1905</v>
       </c>
-      <c r="D42" s="78">
-        <v>1</v>
-      </c>
-      <c r="E42" s="78">
+      <c r="D42" s="74">
+        <v>1</v>
+      </c>
+      <c r="E42" s="74">
         <f t="shared" si="6"/>
         <v>5.2493438320209973E-4</v>
       </c>
-      <c r="F42" s="78">
+      <c r="F42" s="74">
         <v>32</v>
       </c>
-      <c r="G42" s="78">
+      <c r="G42" s="74">
         <f t="shared" si="7"/>
         <v>1.6797900262467191E-2</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="73">
         <v>4</v>
       </c>
-      <c r="I42" s="79">
+      <c r="I42" s="75">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="81">
+      <c r="J42" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="77">
         <v>7</v>
       </c>
-      <c r="C43" s="81">
+      <c r="C43" s="77">
         <v>1905</v>
       </c>
-      <c r="D43" s="82">
-        <v>0</v>
-      </c>
-      <c r="E43" s="82">
+      <c r="D43" s="78">
+        <v>0</v>
+      </c>
+      <c r="E43" s="78">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F43" s="82">
+      <c r="F43" s="78">
         <v>27</v>
       </c>
-      <c r="G43" s="82">
+      <c r="G43" s="78">
         <f t="shared" si="7"/>
         <v>1.4173228346456693E-2</v>
       </c>
-      <c r="H43" s="81">
+      <c r="H43" s="77">
         <v>4</v>
       </c>
-      <c r="I43" s="83">
+      <c r="I43" s="79">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>1</v>
       </c>
@@ -2558,8 +2754,11 @@
       <c r="I44" s="50">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
         <v>1</v>
       </c>
@@ -2589,8 +2788,11 @@
       <c r="I45" s="51">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
         <v>1</v>
       </c>
@@ -2620,8 +2822,11 @@
       <c r="I46" s="51">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
         <v>1</v>
       </c>
@@ -2651,8 +2856,11 @@
       <c r="I47" s="51">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
         <v>1</v>
       </c>
@@ -2682,8 +2890,11 @@
       <c r="I48" s="51">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
         <v>1</v>
       </c>
@@ -2713,8 +2924,11 @@
       <c r="I49" s="51">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
         <v>1</v>
       </c>
@@ -2744,8 +2958,11 @@
       <c r="I50" s="51">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J50" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="40" t="s">
         <v>1</v>
       </c>
@@ -2775,8 +2992,11 @@
       <c r="I51" s="52">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>2</v>
       </c>
@@ -2806,8 +3026,11 @@
       <c r="I52" s="53">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>2</v>
       </c>
@@ -2837,8 +3060,11 @@
       <c r="I53" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>2</v>
       </c>
@@ -2868,8 +3094,11 @@
       <c r="I54" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
@@ -2899,8 +3128,11 @@
       <c r="I55" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>2</v>
       </c>
@@ -2930,8 +3162,11 @@
       <c r="I56" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>2</v>
       </c>
@@ -2961,8 +3196,11 @@
       <c r="I57" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>2</v>
       </c>
@@ -2992,8 +3230,11 @@
       <c r="I58" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>2</v>
       </c>
@@ -3023,8 +3264,11 @@
       <c r="I59" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
         <v>2</v>
       </c>
@@ -3054,8 +3298,11 @@
       <c r="I60" s="55">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>2</v>
       </c>
@@ -3085,8 +3332,11 @@
       <c r="I61" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>2</v>
       </c>
@@ -3116,8 +3366,11 @@
       <c r="I62" s="54">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J62" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="27" t="s">
         <v>2</v>
       </c>
@@ -3147,8 +3400,11 @@
       <c r="I63" s="56">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>2</v>
       </c>
@@ -3178,8 +3434,11 @@
       <c r="I64" s="53">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>2</v>
       </c>
@@ -3209,8 +3468,11 @@
       <c r="I65" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>2</v>
       </c>
@@ -3240,8 +3502,11 @@
       <c r="I66" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
@@ -3271,8 +3536,11 @@
       <c r="I67" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
@@ -3302,8 +3570,11 @@
       <c r="I68" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>2</v>
       </c>
@@ -3333,8 +3604,11 @@
       <c r="I69" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>2</v>
       </c>
@@ -3364,8 +3638,11 @@
       <c r="I70" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>2</v>
       </c>
@@ -3395,8 +3672,11 @@
       <c r="I71" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>2</v>
       </c>
@@ -3426,8 +3706,11 @@
       <c r="I72" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>2</v>
       </c>
@@ -3457,8 +3740,11 @@
       <c r="I73" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>2</v>
       </c>
@@ -3488,8 +3774,11 @@
       <c r="I74" s="54">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J74" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
         <v>2</v>
       </c>
@@ -3519,8 +3808,11 @@
       <c r="I75" s="57">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>2</v>
       </c>
@@ -3550,8 +3842,11 @@
       <c r="I76" s="47">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>2</v>
       </c>
@@ -3581,8 +3876,11 @@
       <c r="I77" s="48">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>2</v>
       </c>
@@ -3612,8 +3910,11 @@
       <c r="I78" s="48">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J78" s="91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="21" t="s">
         <v>2</v>
       </c>
@@ -3643,8 +3944,11 @@
       <c r="I79" s="49">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>3</v>
       </c>
@@ -3674,8 +3978,11 @@
       <c r="I80" s="53">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>3</v>
       </c>
@@ -3705,8 +4012,11 @@
       <c r="I81" s="54">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>3</v>
       </c>
@@ -3736,8 +4046,11 @@
       <c r="I82" s="54">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J82" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
         <v>3</v>
       </c>
@@ -3767,8 +4080,11 @@
       <c r="I83" s="57">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>3</v>
       </c>
@@ -3798,8 +4114,11 @@
       <c r="I84" s="53">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>3</v>
       </c>
@@ -3829,8 +4148,11 @@
       <c r="I85" s="54">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4182,11 @@
       <c r="I86" s="54">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>3</v>
       </c>
@@ -3891,8 +4216,11 @@
       <c r="I87" s="54">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J87" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4250,11 @@
       <c r="I88" s="57">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J88" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>4</v>
       </c>
@@ -3953,8 +4284,11 @@
       <c r="I89" s="47">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J89" s="91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
         <v>4</v>
       </c>
@@ -3984,101 +4318,113 @@
       <c r="I90" s="49">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="71" t="s">
+      <c r="J90" s="91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="72">
-        <v>2</v>
-      </c>
-      <c r="C91" s="72">
+      <c r="B91" s="68">
+        <v>2</v>
+      </c>
+      <c r="C91" s="68">
         <v>80</v>
       </c>
-      <c r="D91" s="73">
+      <c r="D91" s="69">
         <v>13</v>
       </c>
-      <c r="E91" s="73">
+      <c r="E91" s="69">
         <f t="shared" si="10"/>
         <v>0.16250000000000001</v>
       </c>
-      <c r="F91" s="73">
+      <c r="F91" s="69">
         <v>78</v>
       </c>
-      <c r="G91" s="73">
+      <c r="G91" s="69">
         <f t="shared" si="12"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="H91" s="72">
+      <c r="H91" s="68">
         <v>3</v>
       </c>
-      <c r="I91" s="74">
+      <c r="I91" s="70">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="76" t="s">
+      <c r="J91" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="77">
-        <v>2</v>
-      </c>
-      <c r="C92" s="77">
+      <c r="B92" s="73">
+        <v>2</v>
+      </c>
+      <c r="C92" s="73">
         <v>80</v>
       </c>
-      <c r="D92" s="78">
+      <c r="D92" s="74">
         <v>3</v>
       </c>
-      <c r="E92" s="78">
+      <c r="E92" s="74">
         <f t="shared" si="10"/>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="F92" s="78">
+      <c r="F92" s="74">
         <v>56</v>
       </c>
-      <c r="G92" s="78">
+      <c r="G92" s="74">
         <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
-      <c r="H92" s="77">
+      <c r="H92" s="73">
         <v>3</v>
       </c>
-      <c r="I92" s="79">
+      <c r="I92" s="75">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="80" t="s">
+      <c r="J92" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="81">
-        <v>2</v>
-      </c>
-      <c r="C93" s="81">
+      <c r="B93" s="77">
+        <v>2</v>
+      </c>
+      <c r="C93" s="77">
         <v>80</v>
       </c>
-      <c r="D93" s="82">
-        <v>0</v>
-      </c>
-      <c r="E93" s="82">
+      <c r="D93" s="78">
+        <v>0</v>
+      </c>
+      <c r="E93" s="78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F93" s="82">
+      <c r="F93" s="78">
         <v>49</v>
       </c>
-      <c r="G93" s="82">
+      <c r="G93" s="78">
         <f t="shared" si="12"/>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H93" s="81">
+      <c r="H93" s="77">
         <v>3</v>
       </c>
-      <c r="I93" s="83">
+      <c r="I93" s="79">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>5</v>
       </c>
@@ -4108,8 +4454,11 @@
       <c r="I94" s="53">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>5</v>
       </c>
@@ -4139,8 +4488,11 @@
       <c r="I95" s="54">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>5</v>
       </c>
@@ -4170,8 +4522,11 @@
       <c r="I96" s="54">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>5</v>
       </c>
@@ -4201,8 +4556,11 @@
       <c r="I97" s="54">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J97" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="s">
         <v>5</v>
       </c>
@@ -4232,8 +4590,11 @@
       <c r="I98" s="57">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>5</v>
       </c>
@@ -4263,8 +4624,11 @@
       <c r="I99" s="53">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>5</v>
       </c>
@@ -4294,8 +4658,11 @@
       <c r="I100" s="54">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>5</v>
       </c>
@@ -4325,8 +4692,11 @@
       <c r="I101" s="54">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J101" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
         <v>5</v>
       </c>
@@ -4356,8 +4726,11 @@
       <c r="I102" s="57">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>6</v>
       </c>
@@ -4387,8 +4760,11 @@
       <c r="I103" s="53">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>6</v>
       </c>
@@ -4418,8 +4794,11 @@
       <c r="I104" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>6</v>
       </c>
@@ -4449,8 +4828,11 @@
       <c r="I105" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>6</v>
       </c>
@@ -4480,8 +4862,11 @@
       <c r="I106" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>6</v>
       </c>
@@ -4511,8 +4896,11 @@
       <c r="I107" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>6</v>
       </c>
@@ -4542,8 +4930,11 @@
       <c r="I108" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>6</v>
       </c>
@@ -4573,8 +4964,11 @@
       <c r="I109" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>6</v>
       </c>
@@ -4604,8 +4998,11 @@
       <c r="I110" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>6</v>
       </c>
@@ -4635,8 +5032,11 @@
       <c r="I111" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>6</v>
       </c>
@@ -4666,8 +5066,11 @@
       <c r="I112" s="54">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J112" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
         <v>6</v>
       </c>
@@ -4697,8 +5100,11 @@
       <c r="I113" s="57">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J113" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>6</v>
       </c>
@@ -4728,8 +5134,11 @@
       <c r="I114" s="47">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J114" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="21" t="s">
         <v>6</v>
       </c>
@@ -4759,256 +5168,283 @@
       <c r="I115" s="49">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="71" t="s">
+      <c r="J115" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="72">
+      <c r="B116" s="68">
         <v>3</v>
       </c>
-      <c r="C116" s="72">
+      <c r="C116" s="68">
         <v>228</v>
       </c>
-      <c r="D116" s="73">
+      <c r="D116" s="69">
         <v>19</v>
       </c>
-      <c r="E116" s="73">
+      <c r="E116" s="69">
         <f t="shared" si="15"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F116" s="73">
+      <c r="F116" s="69">
         <v>110</v>
       </c>
-      <c r="G116" s="73">
+      <c r="G116" s="69">
         <f t="shared" si="16"/>
         <v>0.48245614035087719</v>
       </c>
-      <c r="H116" s="72">
+      <c r="H116" s="68">
         <v>8</v>
       </c>
-      <c r="I116" s="74">
+      <c r="I116" s="70">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="76" t="s">
+      <c r="J116" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="77">
+      <c r="B117" s="73">
         <v>3</v>
       </c>
-      <c r="C117" s="77">
+      <c r="C117" s="73">
         <v>228</v>
       </c>
-      <c r="D117" s="78">
+      <c r="D117" s="74">
         <v>4</v>
       </c>
-      <c r="E117" s="78">
+      <c r="E117" s="74">
         <f t="shared" si="15"/>
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="F117" s="78">
+      <c r="F117" s="74">
         <v>71</v>
       </c>
-      <c r="G117" s="78">
+      <c r="G117" s="74">
         <f t="shared" si="16"/>
         <v>0.31140350877192985</v>
       </c>
-      <c r="H117" s="77">
+      <c r="H117" s="73">
         <v>8</v>
       </c>
-      <c r="I117" s="79">
+      <c r="I117" s="75">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="76" t="s">
+      <c r="J117" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="77">
+      <c r="B118" s="73">
         <v>3</v>
       </c>
-      <c r="C118" s="77">
+      <c r="C118" s="73">
         <v>228</v>
       </c>
-      <c r="D118" s="78">
+      <c r="D118" s="74">
         <v>5</v>
       </c>
-      <c r="E118" s="78">
+      <c r="E118" s="74">
         <f t="shared" si="15"/>
         <v>2.1929824561403508E-2</v>
       </c>
-      <c r="F118" s="78">
+      <c r="F118" s="74">
         <v>61</v>
       </c>
-      <c r="G118" s="78">
+      <c r="G118" s="74">
         <f t="shared" si="16"/>
         <v>0.26754385964912281</v>
       </c>
-      <c r="H118" s="77">
+      <c r="H118" s="73">
         <v>8</v>
       </c>
-      <c r="I118" s="79">
+      <c r="I118" s="75">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="76" t="s">
+      <c r="J118" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="77">
+      <c r="B119" s="73">
         <v>3</v>
       </c>
-      <c r="C119" s="77">
+      <c r="C119" s="73">
         <v>228</v>
       </c>
-      <c r="D119" s="78">
-        <v>2</v>
-      </c>
-      <c r="E119" s="78">
+      <c r="D119" s="74">
+        <v>2</v>
+      </c>
+      <c r="E119" s="74">
         <f t="shared" si="15"/>
         <v>8.771929824561403E-3</v>
       </c>
-      <c r="F119" s="78">
+      <c r="F119" s="74">
         <v>54</v>
       </c>
-      <c r="G119" s="78">
+      <c r="G119" s="74">
         <f t="shared" si="16"/>
         <v>0.23684210526315788</v>
       </c>
-      <c r="H119" s="77">
+      <c r="H119" s="73">
         <v>8</v>
       </c>
-      <c r="I119" s="79">
+      <c r="I119" s="75">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="76" t="s">
+      <c r="J119" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="77">
+      <c r="B120" s="73">
         <v>3</v>
       </c>
-      <c r="C120" s="77">
+      <c r="C120" s="73">
         <v>228</v>
       </c>
-      <c r="D120" s="78">
+      <c r="D120" s="74">
         <v>4</v>
       </c>
-      <c r="E120" s="78">
+      <c r="E120" s="74">
         <f t="shared" si="15"/>
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="F120" s="78">
+      <c r="F120" s="74">
         <v>50</v>
       </c>
-      <c r="G120" s="78">
+      <c r="G120" s="74">
         <f t="shared" si="16"/>
         <v>0.21929824561403508</v>
       </c>
-      <c r="H120" s="77">
+      <c r="H120" s="73">
         <v>8</v>
       </c>
-      <c r="I120" s="79">
+      <c r="I120" s="75">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="76" t="s">
+      <c r="J120" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="77">
+      <c r="B121" s="73">
         <v>3</v>
       </c>
-      <c r="C121" s="77">
+      <c r="C121" s="73">
         <v>228</v>
       </c>
-      <c r="D121" s="78">
+      <c r="D121" s="74">
         <v>3</v>
       </c>
-      <c r="E121" s="78">
+      <c r="E121" s="74">
         <f t="shared" si="15"/>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="F121" s="78">
+      <c r="F121" s="74">
         <v>40</v>
       </c>
-      <c r="G121" s="78">
+      <c r="G121" s="74">
         <f t="shared" si="16"/>
         <v>0.17543859649122806</v>
       </c>
-      <c r="H121" s="77">
+      <c r="H121" s="73">
         <v>8</v>
       </c>
-      <c r="I121" s="79">
+      <c r="I121" s="75">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="76" t="s">
+      <c r="J121" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="77">
+      <c r="B122" s="73">
         <v>3</v>
       </c>
-      <c r="C122" s="77">
+      <c r="C122" s="73">
         <v>228</v>
       </c>
-      <c r="D122" s="78">
-        <v>2</v>
-      </c>
-      <c r="E122" s="78">
+      <c r="D122" s="74">
+        <v>2</v>
+      </c>
+      <c r="E122" s="74">
         <f t="shared" si="15"/>
         <v>8.771929824561403E-3</v>
       </c>
-      <c r="F122" s="78">
+      <c r="F122" s="74">
         <v>35</v>
       </c>
-      <c r="G122" s="78">
+      <c r="G122" s="74">
         <f t="shared" si="16"/>
         <v>0.15350877192982457</v>
       </c>
-      <c r="H122" s="77">
+      <c r="H122" s="73">
         <v>8</v>
       </c>
-      <c r="I122" s="79">
+      <c r="I122" s="75">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="80" t="s">
+      <c r="J122" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="81">
+      <c r="B123" s="77">
         <v>3</v>
       </c>
-      <c r="C123" s="81">
+      <c r="C123" s="77">
         <v>228</v>
       </c>
-      <c r="D123" s="82">
-        <v>0</v>
-      </c>
-      <c r="E123" s="82">
+      <c r="D123" s="78">
+        <v>0</v>
+      </c>
+      <c r="E123" s="78">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F123" s="82">
+      <c r="F123" s="78">
         <v>31</v>
       </c>
-      <c r="G123" s="82">
+      <c r="G123" s="78">
         <f t="shared" si="16"/>
         <v>0.13596491228070176</v>
       </c>
-      <c r="H123" s="81">
+      <c r="H123" s="77">
         <v>8</v>
       </c>
-      <c r="I123" s="83">
+      <c r="I123" s="79">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>7</v>
       </c>
@@ -5038,8 +5474,11 @@
       <c r="I124" s="53">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>7</v>
       </c>
@@ -5069,8 +5508,11 @@
       <c r="I125" s="54">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>7</v>
       </c>
@@ -5100,8 +5542,11 @@
       <c r="I126" s="54">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>7</v>
       </c>
@@ -5131,8 +5576,11 @@
       <c r="I127" s="54">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J127" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="s">
         <v>7</v>
       </c>
@@ -5162,8 +5610,11 @@
       <c r="I128" s="57">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>7</v>
       </c>
@@ -5193,8 +5644,11 @@
       <c r="I129" s="53">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>7</v>
       </c>
@@ -5224,8 +5678,11 @@
       <c r="I130" s="54">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J130" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
         <v>7</v>
       </c>
@@ -5255,8 +5712,11 @@
       <c r="I131" s="57">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>8</v>
       </c>
@@ -5286,8 +5746,11 @@
       <c r="I132" s="53">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>8</v>
       </c>
@@ -5317,8 +5780,11 @@
       <c r="I133" s="54">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J133" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
         <v>8</v>
       </c>
@@ -5348,8 +5814,11 @@
       <c r="I134" s="57">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>8</v>
       </c>
@@ -5379,8 +5848,11 @@
       <c r="I135" s="53">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>8</v>
       </c>
@@ -5410,8 +5882,11 @@
       <c r="I136" s="54">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>8</v>
       </c>
@@ -5441,8 +5916,11 @@
       <c r="I137" s="54">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J137" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
         <v>8</v>
       </c>
@@ -5472,8 +5950,11 @@
       <c r="I138" s="57">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>8</v>
       </c>
@@ -5503,8 +5984,11 @@
       <c r="I139" s="53">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>8</v>
       </c>
@@ -5534,8 +6018,11 @@
       <c r="I140" s="54">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>8</v>
       </c>
@@ -5565,8 +6052,11 @@
       <c r="I141" s="54">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>8</v>
       </c>
@@ -5596,8 +6086,11 @@
       <c r="I142" s="54">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>8</v>
       </c>
@@ -5627,8 +6120,11 @@
       <c r="I143" s="54">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J143" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="s">
         <v>8</v>
       </c>
@@ -5658,8 +6154,11 @@
       <c r="I144" s="57">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>8</v>
       </c>
@@ -5689,8 +6188,11 @@
       <c r="I145" s="53">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>8</v>
       </c>
@@ -5720,8 +6222,11 @@
       <c r="I146" s="54">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>8</v>
       </c>
@@ -5751,8 +6256,11 @@
       <c r="I147" s="54">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>8</v>
       </c>
@@ -5782,8 +6290,11 @@
       <c r="I148" s="54">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>8</v>
       </c>
@@ -5813,8 +6324,11 @@
       <c r="I149" s="54">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>8</v>
       </c>
@@ -5844,8 +6358,11 @@
       <c r="I150" s="54">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>8</v>
       </c>
@@ -5875,8 +6392,11 @@
       <c r="I151" s="54">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>8</v>
       </c>
@@ -5906,8 +6426,11 @@
       <c r="I152" s="54">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>8</v>
       </c>
@@ -5937,8 +6460,11 @@
       <c r="I153" s="54">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J153" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="s">
         <v>8</v>
       </c>
@@ -5968,8 +6494,11 @@
       <c r="I154" s="57">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>8</v>
       </c>
@@ -5999,8 +6528,11 @@
       <c r="I155" s="53">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
         <v>8</v>
       </c>
@@ -6030,8 +6562,11 @@
       <c r="I156" s="54">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J156" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="s">
         <v>8</v>
       </c>
@@ -6061,8 +6596,11 @@
       <c r="I157" s="57">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>18</v>
       </c>
@@ -6092,8 +6630,11 @@
       <c r="I158" s="53">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>18</v>
       </c>
@@ -6123,8 +6664,11 @@
       <c r="I159" s="54">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>18</v>
       </c>
@@ -6154,8 +6698,11 @@
       <c r="I160" s="54">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>18</v>
       </c>
@@ -6185,8 +6732,11 @@
       <c r="I161" s="54">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J161" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
         <v>18</v>
       </c>
@@ -6216,8 +6766,11 @@
       <c r="I162" s="57">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>18</v>
       </c>
@@ -6247,8 +6800,11 @@
       <c r="I163" s="53">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>18</v>
       </c>
@@ -6278,8 +6834,11 @@
       <c r="I164" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J164" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="s">
         <v>18</v>
       </c>
@@ -6309,8 +6868,11 @@
       <c r="I165" s="57">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>18</v>
       </c>
@@ -6340,8 +6902,11 @@
       <c r="I166" s="53">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>18</v>
       </c>
@@ -6371,8 +6936,11 @@
       <c r="I167" s="54">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J167" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="s">
         <v>18</v>
       </c>
@@ -6402,8 +6970,11 @@
       <c r="I168" s="57">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>16</v>
       </c>
@@ -6433,8 +7004,11 @@
       <c r="I169" s="53">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>16</v>
       </c>
@@ -6464,8 +7038,11 @@
       <c r="I170" s="54">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>16</v>
       </c>
@@ -6495,8 +7072,11 @@
       <c r="I171" s="54">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J171" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="s">
         <v>16</v>
       </c>
@@ -6526,8 +7106,11 @@
       <c r="I172" s="57">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J172" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
         <v>16</v>
       </c>
@@ -6557,8 +7140,11 @@
       <c r="I173" s="47">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J173" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="18" t="s">
         <v>16</v>
       </c>
@@ -6588,8 +7174,11 @@
       <c r="I174" s="48">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J174" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="18" t="s">
         <v>16</v>
       </c>
@@ -6619,8 +7208,11 @@
       <c r="I175" s="48">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J175" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="18" t="s">
         <v>16</v>
       </c>
@@ -6650,8 +7242,11 @@
       <c r="I176" s="48">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J176" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
         <v>16</v>
       </c>
@@ -6681,8 +7276,11 @@
       <c r="I177" s="49">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>16</v>
       </c>
@@ -6712,8 +7310,11 @@
       <c r="I178" s="53">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>16</v>
       </c>
@@ -6743,8 +7344,11 @@
       <c r="I179" s="54">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J179" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
         <v>16</v>
       </c>
@@ -6774,8 +7378,11 @@
       <c r="I180" s="57">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>17</v>
       </c>
@@ -6805,8 +7412,11 @@
       <c r="I181" s="53">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>17</v>
       </c>
@@ -6836,8 +7446,11 @@
       <c r="I182" s="54">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>17</v>
       </c>
@@ -6867,8 +7480,11 @@
       <c r="I183" s="54">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>17</v>
       </c>
@@ -6898,8 +7514,11 @@
       <c r="I184" s="54">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J184" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
         <v>17</v>
       </c>
@@ -6929,8 +7548,11 @@
       <c r="I185" s="57">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>17</v>
       </c>
@@ -6960,8 +7582,11 @@
       <c r="I186" s="53">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>17</v>
       </c>
@@ -6991,8 +7616,11 @@
       <c r="I187" s="54">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>17</v>
       </c>
@@ -7022,8 +7650,11 @@
       <c r="I188" s="54">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>17</v>
       </c>
@@ -7053,8 +7684,11 @@
       <c r="I189" s="54">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>17</v>
       </c>
@@ -7084,8 +7718,11 @@
       <c r="I190" s="54">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>17</v>
       </c>
@@ -7115,8 +7752,11 @@
       <c r="I191" s="54">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J191" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="27" t="s">
         <v>17</v>
       </c>
@@ -7146,8 +7786,11 @@
       <c r="I192" s="56">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>17</v>
       </c>
@@ -7177,8 +7820,11 @@
       <c r="I193" s="53">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>17</v>
       </c>
@@ -7208,8 +7854,11 @@
       <c r="I194" s="54">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J194" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="s">
         <v>17</v>
       </c>
@@ -7239,8 +7888,11 @@
       <c r="I195" s="57">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>19</v>
       </c>
@@ -7270,8 +7922,11 @@
       <c r="I196" s="53">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>19</v>
       </c>
@@ -7301,8 +7956,11 @@
       <c r="I197" s="54">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>19</v>
       </c>
@@ -7332,8 +7990,11 @@
       <c r="I198" s="54">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>19</v>
       </c>
@@ -7363,8 +8024,11 @@
       <c r="I199" s="54">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J199" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="13" t="s">
         <v>19</v>
       </c>
@@ -7394,8 +8058,11 @@
       <c r="I200" s="57">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J200" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
         <v>19</v>
       </c>
@@ -7425,8 +8092,11 @@
       <c r="I201" s="47">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J201" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="18" t="s">
         <v>19</v>
       </c>
@@ -7456,8 +8126,11 @@
       <c r="I202" s="48">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J202" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="21" t="s">
         <v>19</v>
       </c>
@@ -7487,8 +8160,11 @@
       <c r="I203" s="49">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>19</v>
       </c>
@@ -7518,8 +8194,11 @@
       <c r="I204" s="53">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>19</v>
       </c>
@@ -7549,8 +8228,11 @@
       <c r="I205" s="54">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J205" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="13" t="s">
         <v>19</v>
       </c>
@@ -7580,8 +8262,11 @@
       <c r="I206" s="57">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>20</v>
       </c>
@@ -7611,8 +8296,11 @@
       <c r="I207" s="53">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>20</v>
       </c>
@@ -7642,8 +8330,11 @@
       <c r="I208" s="54">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J208" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="s">
         <v>20</v>
       </c>
@@ -7673,8 +8364,11 @@
       <c r="I209" s="57">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>20</v>
       </c>
@@ -7704,8 +8398,11 @@
       <c r="I210" s="53">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>20</v>
       </c>
@@ -7735,8 +8432,11 @@
       <c r="I211" s="54">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>20</v>
       </c>
@@ -7766,8 +8466,11 @@
       <c r="I212" s="54">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J212" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="13" t="s">
         <v>20</v>
       </c>
@@ -7797,8 +8500,11 @@
       <c r="I213" s="57">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>20</v>
       </c>
@@ -7828,8 +8534,11 @@
       <c r="I214" s="53">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J214" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="13" t="s">
         <v>20</v>
       </c>
@@ -7859,8 +8568,11 @@
       <c r="I215" s="57">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>21</v>
       </c>
@@ -7890,8 +8602,11 @@
       <c r="I216" s="53">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>21</v>
       </c>
@@ -7921,8 +8636,11 @@
       <c r="I217" s="54">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>21</v>
       </c>
@@ -7952,8 +8670,11 @@
       <c r="I218" s="54">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>21</v>
       </c>
@@ -7983,8 +8704,11 @@
       <c r="I219" s="54">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J219" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="13" t="s">
         <v>21</v>
       </c>
@@ -8014,8 +8738,11 @@
       <c r="I220" s="57">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J220" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
         <v>21</v>
       </c>
@@ -8045,8 +8772,11 @@
       <c r="I221" s="47">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J221" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="18" t="s">
         <v>21</v>
       </c>
@@ -8076,8 +8806,11 @@
       <c r="I222" s="48">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J222" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="18" t="s">
         <v>21</v>
       </c>
@@ -8107,8 +8840,11 @@
       <c r="I223" s="48">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J223" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="18" t="s">
         <v>21</v>
       </c>
@@ -8138,8 +8874,11 @@
       <c r="I224" s="48">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J224" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="18" t="s">
         <v>21</v>
       </c>
@@ -8169,8 +8908,11 @@
       <c r="I225" s="48">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J225" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="18" t="s">
         <v>21</v>
       </c>
@@ -8200,8 +8942,11 @@
       <c r="I226" s="48">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J226" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="21" t="s">
         <v>21</v>
       </c>
@@ -8231,8 +8976,11 @@
       <c r="I227" s="49">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>21</v>
       </c>
@@ -8262,8 +9010,11 @@
       <c r="I228" s="53">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>21</v>
       </c>
@@ -8293,8 +9044,11 @@
       <c r="I229" s="54">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
         <v>21</v>
       </c>
@@ -8324,8 +9078,11 @@
       <c r="I230" s="54">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J230" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="13" t="s">
         <v>21</v>
       </c>
@@ -8355,8 +9112,11 @@
       <c r="I231" s="57">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J231" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
         <v>22</v>
       </c>
@@ -8386,8 +9146,11 @@
       <c r="I232" s="47">
         <v>6.43</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J232" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="21" t="s">
         <v>22</v>
       </c>
@@ -8417,39 +9180,45 @@
       <c r="I233" s="49">
         <v>6.43</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="84" t="s">
+      <c r="J233" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B234" s="85">
-        <v>2</v>
-      </c>
-      <c r="C234" s="85">
+      <c r="B234" s="81">
+        <v>2</v>
+      </c>
+      <c r="C234" s="81">
         <v>32</v>
       </c>
-      <c r="D234" s="86">
-        <v>0</v>
-      </c>
-      <c r="E234" s="86">
+      <c r="D234" s="82">
+        <v>0</v>
+      </c>
+      <c r="E234" s="82">
         <f t="shared" ref="E234:E236" si="48">D234/C234</f>
         <v>0</v>
       </c>
-      <c r="F234" s="86">
+      <c r="F234" s="82">
         <v>32</v>
       </c>
-      <c r="G234" s="86">
+      <c r="G234" s="82">
         <f t="shared" ref="G234:G236" si="49">F234/C234</f>
         <v>1</v>
       </c>
-      <c r="H234" s="85">
-        <v>1</v>
-      </c>
-      <c r="I234" s="87">
+      <c r="H234" s="81">
+        <v>1</v>
+      </c>
+      <c r="I234" s="83">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" s="92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>22</v>
       </c>
@@ -8479,8 +9248,11 @@
       <c r="I235" s="53">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J235" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13" t="s">
         <v>22</v>
       </c>
@@ -8510,8 +9282,11 @@
       <c r="I236" s="57">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>22</v>
       </c>
@@ -8541,8 +9316,11 @@
       <c r="I237" s="53">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>22</v>
       </c>
@@ -8572,8 +9350,11 @@
       <c r="I238" s="54">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>22</v>
       </c>
@@ -8603,8 +9384,11 @@
       <c r="I239" s="54">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J239" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="13" t="s">
         <v>22</v>
       </c>
@@ -8634,8 +9418,11 @@
       <c r="I240" s="57">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J240" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
         <v>22</v>
       </c>
@@ -8665,8 +9452,11 @@
       <c r="I241" s="47">
         <v>6.47</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J241" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="18" t="s">
         <v>22</v>
       </c>
@@ -8696,8 +9486,11 @@
       <c r="I242" s="48">
         <v>6.47</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J242" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="18" t="s">
         <v>22</v>
       </c>
@@ -8727,8 +9520,11 @@
       <c r="I243" s="48">
         <v>6.47</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J243" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="24" t="s">
         <v>22</v>
       </c>
@@ -8758,163 +9554,181 @@
       <c r="I244" s="58">
         <v>6.47</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="71" t="s">
+      <c r="J244" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="88">
-        <v>1</v>
-      </c>
-      <c r="C245" s="72">
+      <c r="B245" s="84">
+        <v>1</v>
+      </c>
+      <c r="C245" s="68">
         <v>5493</v>
       </c>
-      <c r="D245" s="73">
+      <c r="D245" s="69">
         <v>818</v>
       </c>
-      <c r="E245" s="73">
+      <c r="E245" s="69">
         <f t="shared" si="10"/>
         <v>0.14891680320407791</v>
       </c>
-      <c r="F245" s="73">
+      <c r="F245" s="69">
         <v>5109</v>
       </c>
-      <c r="G245" s="73">
+      <c r="G245" s="69">
         <f t="shared" si="12"/>
         <v>0.93009284543965043</v>
       </c>
-      <c r="H245" s="72">
+      <c r="H245" s="68">
         <v>5</v>
       </c>
-      <c r="I245" s="74">
+      <c r="I245" s="70">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="76" t="s">
+      <c r="J245" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B246" s="89">
-        <v>1</v>
-      </c>
-      <c r="C246" s="90">
+      <c r="B246" s="85">
+        <v>1</v>
+      </c>
+      <c r="C246" s="86">
         <v>5493</v>
       </c>
-      <c r="D246" s="78">
+      <c r="D246" s="74">
         <v>309</v>
       </c>
-      <c r="E246" s="78">
+      <c r="E246" s="74">
         <f t="shared" si="10"/>
         <v>5.6253413435281265E-2</v>
       </c>
-      <c r="F246" s="78">
+      <c r="F246" s="74">
         <v>1379</v>
       </c>
-      <c r="G246" s="78">
+      <c r="G246" s="74">
         <f t="shared" si="12"/>
         <v>0.25104678681958859</v>
       </c>
-      <c r="H246" s="77">
+      <c r="H246" s="73">
         <v>5</v>
       </c>
-      <c r="I246" s="91">
+      <c r="I246" s="87">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="76" t="s">
+      <c r="J246" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B247" s="89">
-        <v>1</v>
-      </c>
-      <c r="C247" s="90">
+      <c r="B247" s="85">
+        <v>1</v>
+      </c>
+      <c r="C247" s="86">
         <v>5493</v>
       </c>
-      <c r="D247" s="78">
+      <c r="D247" s="74">
         <v>71</v>
       </c>
-      <c r="E247" s="78">
+      <c r="E247" s="74">
         <f t="shared" si="10"/>
         <v>1.2925541598397962E-2</v>
       </c>
-      <c r="F247" s="78">
+      <c r="F247" s="74">
         <v>227</v>
       </c>
-      <c r="G247" s="78">
+      <c r="G247" s="74">
         <f t="shared" si="12"/>
         <v>4.1325323138539961E-2</v>
       </c>
-      <c r="H247" s="77">
+      <c r="H247" s="73">
         <v>5</v>
       </c>
-      <c r="I247" s="91">
+      <c r="I247" s="87">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="76" t="s">
+      <c r="J247" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B248" s="89">
-        <v>1</v>
-      </c>
-      <c r="C248" s="90">
+      <c r="B248" s="85">
+        <v>1</v>
+      </c>
+      <c r="C248" s="86">
         <v>5493</v>
       </c>
-      <c r="D248" s="78">
-        <v>1</v>
-      </c>
-      <c r="E248" s="78">
+      <c r="D248" s="74">
+        <v>1</v>
+      </c>
+      <c r="E248" s="74">
         <f t="shared" si="10"/>
         <v>1.8204988166757691E-4</v>
       </c>
-      <c r="F248" s="78">
+      <c r="F248" s="74">
         <v>25</v>
       </c>
-      <c r="G248" s="78">
+      <c r="G248" s="74">
         <f t="shared" si="12"/>
         <v>4.5512470416894232E-3</v>
       </c>
-      <c r="H248" s="77">
+      <c r="H248" s="73">
         <v>5</v>
       </c>
-      <c r="I248" s="91">
+      <c r="I248" s="87">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="80" t="s">
+      <c r="J248" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="92">
-        <v>1</v>
-      </c>
-      <c r="C249" s="93">
+      <c r="B249" s="88">
+        <v>1</v>
+      </c>
+      <c r="C249" s="89">
         <v>5493</v>
       </c>
-      <c r="D249" s="82">
-        <v>0</v>
-      </c>
-      <c r="E249" s="82">
+      <c r="D249" s="78">
+        <v>0</v>
+      </c>
+      <c r="E249" s="78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F249" s="82">
+      <c r="F249" s="78">
         <v>23</v>
       </c>
-      <c r="G249" s="82">
+      <c r="G249" s="78">
         <f t="shared" si="12"/>
         <v>4.1871472783542689E-3</v>
       </c>
-      <c r="H249" s="81">
+      <c r="H249" s="77">
         <v>5</v>
       </c>
-      <c r="I249" s="94">
+      <c r="I249" s="90">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>23</v>
       </c>
@@ -8944,8 +9758,11 @@
       <c r="I250" s="53">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="s">
         <v>23</v>
       </c>
@@ -8975,8 +9792,11 @@
       <c r="I251" s="54">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="12" t="s">
         <v>23</v>
       </c>
@@ -9006,8 +9826,11 @@
       <c r="I252" s="54">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
         <v>23</v>
       </c>
@@ -9037,8 +9860,11 @@
       <c r="I253" s="54">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
         <v>23</v>
       </c>
@@ -9068,8 +9894,11 @@
       <c r="I254" s="54">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J254" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="13" t="s">
         <v>23</v>
       </c>
@@ -9099,8 +9928,11 @@
       <c r="I255" s="57">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
         <v>23</v>
       </c>
@@ -9130,8 +9962,11 @@
       <c r="I256" s="53">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
         <v>23</v>
       </c>
@@ -9161,8 +9996,11 @@
       <c r="I257" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>23</v>
       </c>
@@ -9192,8 +10030,11 @@
       <c r="I258" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J258" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="13" t="s">
         <v>23</v>
       </c>
@@ -9223,8 +10064,11 @@
       <c r="I259" s="57">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
         <v>23</v>
       </c>
@@ -9254,8 +10098,11 @@
       <c r="I260" s="53">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>23</v>
       </c>
@@ -9285,8 +10132,11 @@
       <c r="I261" s="54">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J261" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="13" t="s">
         <v>23</v>
       </c>
@@ -9316,8 +10166,11 @@
       <c r="I262" s="57">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>23</v>
       </c>
@@ -9347,8 +10200,11 @@
       <c r="I263" s="53">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J263" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="13" t="s">
         <v>23</v>
       </c>
@@ -9378,8 +10234,11 @@
       <c r="I264" s="57">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J264" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="14" t="s">
         <v>23</v>
       </c>
@@ -9409,8 +10268,11 @@
       <c r="I265" s="47">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J265" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="18" t="s">
         <v>23</v>
       </c>
@@ -9440,8 +10302,11 @@
       <c r="I266" s="48">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J266" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="21" t="s">
         <v>23</v>
       </c>
@@ -9471,8 +10336,11 @@
       <c r="I267" s="49">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>23</v>
       </c>
@@ -9502,8 +10370,11 @@
       <c r="I268" s="53">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J268" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="27" t="s">
         <v>23</v>
       </c>
@@ -9533,8 +10404,11 @@
       <c r="I269" s="56">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>24</v>
       </c>
@@ -9564,8 +10438,11 @@
       <c r="I270" s="53">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J270" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="27" t="s">
         <v>24</v>
       </c>
@@ -9595,8 +10472,11 @@
       <c r="I271" s="62">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>24</v>
       </c>
@@ -9626,8 +10506,11 @@
       <c r="I272" s="53">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J272" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="27" t="s">
         <v>24</v>
       </c>
@@ -9657,8 +10540,11 @@
       <c r="I273" s="62">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>24</v>
       </c>
@@ -9688,8 +10574,11 @@
       <c r="I274" s="53">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J274" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="27" t="s">
         <v>24</v>
       </c>
@@ -9719,15 +10608,18 @@
       <c r="I275" s="62">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="67" t="s">
+      <c r="J275" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B276" s="68">
+      <c r="B276" s="64">
         <v>4</v>
       </c>
-      <c r="C276" s="69">
+      <c r="C276" s="65">
         <v>5</v>
       </c>
       <c r="D276" s="59">
@@ -9744,14 +10636,17 @@
         <f t="shared" ref="G276" si="71">F276/C276</f>
         <v>0.4</v>
       </c>
-      <c r="H276" s="69">
-        <v>1</v>
-      </c>
-      <c r="I276" s="70">
+      <c r="H276" s="65">
+        <v>1</v>
+      </c>
+      <c r="I276" s="66">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>25</v>
       </c>
@@ -9781,8 +10676,11 @@
       <c r="I277" s="53">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="12" t="s">
         <v>25</v>
       </c>
@@ -9812,8 +10710,11 @@
       <c r="I278" s="54">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
         <v>25</v>
       </c>
@@ -9843,8 +10744,11 @@
       <c r="I279" s="54">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J279" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="13" t="s">
         <v>25</v>
       </c>
@@ -9874,8 +10778,11 @@
       <c r="I280" s="57">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>25</v>
       </c>
@@ -9905,8 +10812,11 @@
       <c r="I281" s="53">
         <v>2.2599999999999998</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J281" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="13" t="s">
         <v>25</v>
       </c>
@@ -9936,8 +10846,11 @@
       <c r="I282" s="57">
         <v>2.2599999999999998</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>25</v>
       </c>
@@ -9967,8 +10880,11 @@
       <c r="I283" s="53">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="12" t="s">
         <v>25</v>
       </c>
@@ -9998,8 +10914,11 @@
       <c r="I284" s="54">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="12" t="s">
         <v>25</v>
       </c>
@@ -10029,8 +10948,11 @@
       <c r="I285" s="54">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J285" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="13" t="s">
         <v>25</v>
       </c>
@@ -10060,8 +10982,11 @@
       <c r="I286" s="57">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
         <v>25</v>
       </c>
@@ -10091,8 +11016,11 @@
       <c r="I287" s="53">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
         <v>25</v>
       </c>
@@ -10122,8 +11050,11 @@
       <c r="I288" s="54">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J288" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="13" t="s">
         <v>25</v>
       </c>
@@ -10153,8 +11084,11 @@
       <c r="I289" s="57">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
         <v>25</v>
       </c>
@@ -10184,8 +11118,11 @@
       <c r="I290" s="53">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J290" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="13" t="s">
         <v>25</v>
       </c>
@@ -10215,8 +11152,11 @@
       <c r="I291" s="57">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
         <v>25</v>
       </c>
@@ -10246,8 +11186,11 @@
       <c r="I292" s="53">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J292" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="13" t="s">
         <v>25</v>
       </c>
@@ -10277,8 +11220,11 @@
       <c r="I293" s="57">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J293" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
         <v>26</v>
       </c>
@@ -10308,8 +11254,11 @@
       <c r="I294" s="47">
         <v>6.52</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J294" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="18" t="s">
         <v>26</v>
       </c>
@@ -10339,8 +11288,11 @@
       <c r="I295" s="48">
         <v>6.52</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J295" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="18" t="s">
         <v>26</v>
       </c>
@@ -10370,8 +11322,11 @@
       <c r="I296" s="48">
         <v>6.52</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J296" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="18" t="s">
         <v>26</v>
       </c>
@@ -10401,8 +11356,11 @@
       <c r="I297" s="48">
         <v>6.52</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J297" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="18" t="s">
         <v>26</v>
       </c>
@@ -10432,8 +11390,11 @@
       <c r="I298" s="48">
         <v>6.52</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J298" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="21" t="s">
         <v>26</v>
       </c>
@@ -10463,8 +11424,11 @@
       <c r="I299" s="49">
         <v>6.52</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
         <v>26</v>
       </c>
@@ -10494,8 +11458,11 @@
       <c r="I300" s="53">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
         <v>26</v>
       </c>
@@ -10525,8 +11492,11 @@
       <c r="I301" s="54">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
         <v>26</v>
       </c>
@@ -10556,8 +11526,11 @@
       <c r="I302" s="54">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J302" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="13" t="s">
         <v>26</v>
       </c>
@@ -10587,8 +11560,11 @@
       <c r="I303" s="57">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="9" t="s">
         <v>26</v>
       </c>
@@ -10618,8 +11594,11 @@
       <c r="I304" s="53">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="12" t="s">
         <v>26</v>
       </c>
@@ -10649,8 +11628,11 @@
       <c r="I305" s="54">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="12" t="s">
         <v>26</v>
       </c>
@@ -10680,8 +11662,11 @@
       <c r="I306" s="54">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="12" t="s">
         <v>26</v>
       </c>
@@ -10711,8 +11696,11 @@
       <c r="I307" s="54">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J307" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="13" t="s">
         <v>26</v>
       </c>
@@ -10742,8 +11730,11 @@
       <c r="I308" s="57">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J308" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="14" t="s">
         <v>26</v>
       </c>
@@ -10773,8 +11764,11 @@
       <c r="I309" s="47">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J309" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="18" t="s">
         <v>26</v>
       </c>
@@ -10804,8 +11798,11 @@
       <c r="I310" s="48">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J310" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="18" t="s">
         <v>26</v>
       </c>
@@ -10835,8 +11832,11 @@
       <c r="I311" s="48">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J311" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="18" t="s">
         <v>26</v>
       </c>
@@ -10866,8 +11866,11 @@
       <c r="I312" s="48">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J312" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="18" t="s">
         <v>26</v>
       </c>
@@ -10897,8 +11900,11 @@
       <c r="I313" s="48">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J313" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="18" t="s">
         <v>26</v>
       </c>
@@ -10928,8 +11934,11 @@
       <c r="I314" s="48">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J314" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="18" t="s">
         <v>26</v>
       </c>
@@ -10959,8 +11968,11 @@
       <c r="I315" s="48">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J315" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="18" t="s">
         <v>26</v>
       </c>
@@ -10990,8 +12002,11 @@
       <c r="I316" s="48">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J316" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="18" t="s">
         <v>26</v>
       </c>
@@ -11021,8 +12036,11 @@
       <c r="I317" s="48">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J317" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="21" t="s">
         <v>26</v>
       </c>
@@ -11052,8 +12070,11 @@
       <c r="I318" s="49">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>26</v>
       </c>
@@ -11083,8 +12104,11 @@
       <c r="I319" s="53">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J319" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="13" t="s">
         <v>26</v>
       </c>
@@ -11114,8 +12138,11 @@
       <c r="I320" s="57">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
         <v>26</v>
       </c>
@@ -11145,8 +12172,11 @@
       <c r="I321" s="53">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J321" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="13" t="s">
         <v>26</v>
       </c>
@@ -11176,8 +12206,11 @@
       <c r="I322" s="57">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
         <v>26</v>
       </c>
@@ -11207,8 +12240,11 @@
       <c r="I323" s="53">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J323" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="13" t="s">
         <v>26</v>
       </c>
@@ -11238,8 +12274,11 @@
       <c r="I324" s="57">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J324" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="14" t="s">
         <v>27</v>
       </c>
@@ -11269,8 +12308,11 @@
       <c r="I325" s="47">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J325" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="18" t="s">
         <v>27</v>
       </c>
@@ -11300,8 +12342,11 @@
       <c r="I326" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J326" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="18" t="s">
         <v>27</v>
       </c>
@@ -11331,8 +12376,11 @@
       <c r="I327" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J327" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="18" t="s">
         <v>27</v>
       </c>
@@ -11362,8 +12410,11 @@
       <c r="I328" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J328" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="18" t="s">
         <v>27</v>
       </c>
@@ -11393,8 +12444,11 @@
       <c r="I329" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J329" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="18" t="s">
         <v>27</v>
       </c>
@@ -11424,8 +12478,11 @@
       <c r="I330" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J330" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="18" t="s">
         <v>27</v>
       </c>
@@ -11455,8 +12512,11 @@
       <c r="I331" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J331" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="18" t="s">
         <v>27</v>
       </c>
@@ -11486,8 +12546,11 @@
       <c r="I332" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J332" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="18" t="s">
         <v>27</v>
       </c>
@@ -11517,8 +12580,11 @@
       <c r="I333" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J333" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="18" t="s">
         <v>27</v>
       </c>
@@ -11548,8 +12614,11 @@
       <c r="I334" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J334" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="18" t="s">
         <v>27</v>
       </c>
@@ -11579,8 +12648,11 @@
       <c r="I335" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J335" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="18" t="s">
         <v>27</v>
       </c>
@@ -11610,8 +12682,11 @@
       <c r="I336" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J336" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="18" t="s">
         <v>27</v>
       </c>
@@ -11641,8 +12716,11 @@
       <c r="I337" s="48">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J337" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="21" t="s">
         <v>27</v>
       </c>
@@ -11672,8 +12750,11 @@
       <c r="I338" s="49">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="9" t="s">
         <v>27</v>
       </c>
@@ -11703,8 +12784,11 @@
       <c r="I339" s="53">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
         <v>27</v>
       </c>
@@ -11734,8 +12818,11 @@
       <c r="I340" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
         <v>27</v>
       </c>
@@ -11765,8 +12852,11 @@
       <c r="I341" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
         <v>27</v>
       </c>
@@ -11796,8 +12886,11 @@
       <c r="I342" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
         <v>27</v>
       </c>
@@ -11827,8 +12920,11 @@
       <c r="I343" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="12" t="s">
         <v>27</v>
       </c>
@@ -11858,8 +12954,11 @@
       <c r="I344" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="12" t="s">
         <v>27</v>
       </c>
@@ -11889,8 +12988,11 @@
       <c r="I345" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J345" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="12" t="s">
         <v>27</v>
       </c>
@@ -11920,8 +13022,11 @@
       <c r="I346" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J346" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="12" t="s">
         <v>27</v>
       </c>
@@ -11951,8 +13056,11 @@
       <c r="I347" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J347" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="12" t="s">
         <v>27</v>
       </c>
@@ -11982,8 +13090,11 @@
       <c r="I348" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J348" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="12" t="s">
         <v>27</v>
       </c>
@@ -12013,8 +13124,11 @@
       <c r="I349" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J349" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="12" t="s">
         <v>27</v>
       </c>
@@ -12044,8 +13158,11 @@
       <c r="I350" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J350" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="12" t="s">
         <v>27</v>
       </c>
@@ -12075,8 +13192,11 @@
       <c r="I351" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J351" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="12" t="s">
         <v>27</v>
       </c>
@@ -12106,8 +13226,11 @@
       <c r="I352" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J352" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="12" t="s">
         <v>27</v>
       </c>
@@ -12137,8 +13260,11 @@
       <c r="I353" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J353" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="12" t="s">
         <v>27</v>
       </c>
@@ -12168,8 +13294,11 @@
       <c r="I354" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J354" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="12" t="s">
         <v>27</v>
       </c>
@@ -12199,8 +13328,11 @@
       <c r="I355" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J355" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="12" t="s">
         <v>27</v>
       </c>
@@ -12230,8 +13362,11 @@
       <c r="I356" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J356" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="12" t="s">
         <v>27</v>
       </c>
@@ -12261,8 +13396,11 @@
       <c r="I357" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J357" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="12" t="s">
         <v>27</v>
       </c>
@@ -12292,8 +13430,11 @@
       <c r="I358" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J358" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="12" t="s">
         <v>27</v>
       </c>
@@ -12323,8 +13464,11 @@
       <c r="I359" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J359" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="12" t="s">
         <v>27</v>
       </c>
@@ -12354,8 +13498,11 @@
       <c r="I360" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J360" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="12" t="s">
         <v>27</v>
       </c>
@@ -12385,8 +13532,11 @@
       <c r="I361" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J361" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="12" t="s">
         <v>27</v>
       </c>
@@ -12416,8 +13566,11 @@
       <c r="I362" s="54">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J362" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="13" t="s">
         <v>27</v>
       </c>
@@ -12447,8 +13600,11 @@
       <c r="I363" s="57">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J363" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="14" t="s">
         <v>27</v>
       </c>
@@ -12478,8 +13634,11 @@
       <c r="I364" s="47">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J364" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="18" t="s">
         <v>27</v>
       </c>
@@ -12509,8 +13668,11 @@
       <c r="I365" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J365" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="18" t="s">
         <v>27</v>
       </c>
@@ -12540,8 +13702,11 @@
       <c r="I366" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J366" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="18" t="s">
         <v>27</v>
       </c>
@@ -12571,8 +13736,11 @@
       <c r="I367" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J367" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="18" t="s">
         <v>27</v>
       </c>
@@ -12602,8 +13770,11 @@
       <c r="I368" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J368" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="18" t="s">
         <v>27</v>
       </c>
@@ -12633,8 +13804,11 @@
       <c r="I369" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J369" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="18" t="s">
         <v>27</v>
       </c>
@@ -12664,8 +13838,11 @@
       <c r="I370" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J370" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="18" t="s">
         <v>27</v>
       </c>
@@ -12695,8 +13872,11 @@
       <c r="I371" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J371" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="18" t="s">
         <v>27</v>
       </c>
@@ -12726,8 +13906,11 @@
       <c r="I372" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J372" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="18" t="s">
         <v>27</v>
       </c>
@@ -12757,8 +13940,11 @@
       <c r="I373" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J373" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="18" t="s">
         <v>27</v>
       </c>
@@ -12788,8 +13974,11 @@
       <c r="I374" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J374" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="18" t="s">
         <v>27</v>
       </c>
@@ -12819,8 +14008,11 @@
       <c r="I375" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J375" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="18" t="s">
         <v>27</v>
       </c>
@@ -12850,8 +14042,11 @@
       <c r="I376" s="48">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J376" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="21" t="s">
         <v>27</v>
       </c>
@@ -12881,659 +14076,725 @@
       <c r="I377" s="49">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="71" t="s">
+      <c r="J377" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B378" s="72">
+      <c r="B378" s="68">
         <v>4</v>
       </c>
-      <c r="C378" s="72">
+      <c r="C378" s="68">
         <v>4694</v>
       </c>
-      <c r="D378" s="73">
+      <c r="D378" s="69">
         <v>287</v>
       </c>
-      <c r="E378" s="73">
+      <c r="E378" s="69">
         <f t="shared" si="97"/>
         <v>6.114188325521943E-2</v>
       </c>
-      <c r="F378" s="73">
+      <c r="F378" s="69">
         <v>4678</v>
       </c>
-      <c r="G378" s="73">
+      <c r="G378" s="69">
         <f t="shared" si="98"/>
         <v>0.99659139326800172</v>
       </c>
-      <c r="H378" s="72">
+      <c r="H378" s="68">
         <v>21</v>
       </c>
-      <c r="I378" s="74">
+      <c r="I378" s="70">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="76" t="s">
+      <c r="J378" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B379" s="77">
+      <c r="B379" s="73">
         <v>4</v>
       </c>
-      <c r="C379" s="77">
+      <c r="C379" s="73">
         <v>4694</v>
       </c>
-      <c r="D379" s="78">
+      <c r="D379" s="74">
         <v>295</v>
       </c>
-      <c r="E379" s="78">
+      <c r="E379" s="74">
         <f t="shared" si="97"/>
         <v>6.2846186621218575E-2</v>
       </c>
-      <c r="F379" s="78">
+      <c r="F379" s="74">
         <v>3085</v>
       </c>
-      <c r="G379" s="78">
+      <c r="G379" s="74">
         <f t="shared" si="98"/>
         <v>0.65722198551342137</v>
       </c>
-      <c r="H379" s="77">
+      <c r="H379" s="73">
         <v>21</v>
       </c>
-      <c r="I379" s="79">
+      <c r="I379" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="76" t="s">
+      <c r="J379" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B380" s="77">
+      <c r="B380" s="73">
         <v>4</v>
       </c>
-      <c r="C380" s="77">
+      <c r="C380" s="73">
         <v>4694</v>
       </c>
-      <c r="D380" s="78">
+      <c r="D380" s="74">
         <v>224</v>
       </c>
-      <c r="E380" s="78">
+      <c r="E380" s="74">
         <f t="shared" si="97"/>
         <v>4.7720494247976142E-2</v>
       </c>
-      <c r="F380" s="78">
+      <c r="F380" s="74">
         <v>1786</v>
       </c>
-      <c r="G380" s="78">
+      <c r="G380" s="74">
         <f t="shared" si="98"/>
         <v>0.38048572645930978</v>
       </c>
-      <c r="H380" s="77">
+      <c r="H380" s="73">
         <v>21</v>
       </c>
-      <c r="I380" s="79">
+      <c r="I380" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="76" t="s">
+      <c r="J380" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B381" s="77">
+      <c r="B381" s="73">
         <v>4</v>
       </c>
-      <c r="C381" s="77">
+      <c r="C381" s="73">
         <v>4694</v>
       </c>
-      <c r="D381" s="78">
+      <c r="D381" s="74">
         <v>132</v>
       </c>
-      <c r="E381" s="78">
+      <c r="E381" s="74">
         <f t="shared" si="97"/>
         <v>2.812100553898594E-2</v>
       </c>
-      <c r="F381" s="78">
+      <c r="F381" s="74">
         <v>1228</v>
       </c>
-      <c r="G381" s="78">
+      <c r="G381" s="74">
         <f t="shared" si="98"/>
         <v>0.26161056668086918</v>
       </c>
-      <c r="H381" s="77">
+      <c r="H381" s="73">
         <v>21</v>
       </c>
-      <c r="I381" s="79">
+      <c r="I381" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="76" t="s">
+      <c r="J381" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B382" s="77">
+      <c r="B382" s="73">
         <v>4</v>
       </c>
-      <c r="C382" s="77">
+      <c r="C382" s="73">
         <v>4694</v>
       </c>
-      <c r="D382" s="78">
+      <c r="D382" s="74">
         <v>73</v>
       </c>
-      <c r="E382" s="78">
+      <c r="E382" s="74">
         <f t="shared" si="97"/>
         <v>1.5551768214742225E-2</v>
       </c>
-      <c r="F382" s="78">
+      <c r="F382" s="74">
         <v>921</v>
       </c>
-      <c r="G382" s="78">
+      <c r="G382" s="74">
         <f t="shared" si="98"/>
         <v>0.1962079250106519</v>
       </c>
-      <c r="H382" s="77">
+      <c r="H382" s="73">
         <v>21</v>
       </c>
-      <c r="I382" s="79">
+      <c r="I382" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="76" t="s">
+      <c r="J382" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B383" s="77">
+      <c r="B383" s="73">
         <v>4</v>
       </c>
-      <c r="C383" s="77">
+      <c r="C383" s="73">
         <v>4694</v>
       </c>
-      <c r="D383" s="78">
+      <c r="D383" s="74">
         <v>59</v>
       </c>
-      <c r="E383" s="78">
+      <c r="E383" s="74">
         <f t="shared" si="97"/>
         <v>1.2569237324243716E-2</v>
       </c>
-      <c r="F383" s="78">
+      <c r="F383" s="74">
         <v>754</v>
       </c>
-      <c r="G383" s="78">
+      <c r="G383" s="74">
         <f t="shared" si="98"/>
         <v>0.16063059224541967</v>
       </c>
-      <c r="H383" s="77">
+      <c r="H383" s="73">
         <v>21</v>
       </c>
-      <c r="I383" s="79">
+      <c r="I383" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="76" t="s">
+      <c r="J383" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B384" s="77">
+      <c r="B384" s="73">
         <v>4</v>
       </c>
-      <c r="C384" s="77">
+      <c r="C384" s="73">
         <v>4694</v>
       </c>
-      <c r="D384" s="78">
+      <c r="D384" s="74">
         <v>41</v>
       </c>
-      <c r="E384" s="78">
+      <c r="E384" s="74">
         <f t="shared" si="97"/>
         <v>8.7345547507456326E-3</v>
       </c>
-      <c r="F384" s="78">
+      <c r="F384" s="74">
         <v>613</v>
       </c>
-      <c r="G384" s="78">
+      <c r="G384" s="74">
         <f t="shared" si="98"/>
         <v>0.1305922454196847</v>
       </c>
-      <c r="H384" s="77">
+      <c r="H384" s="73">
         <v>21</v>
       </c>
-      <c r="I384" s="79">
+      <c r="I384" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="76" t="s">
+      <c r="J384" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B385" s="77">
+      <c r="B385" s="73">
         <v>4</v>
       </c>
-      <c r="C385" s="77">
+      <c r="C385" s="73">
         <v>4694</v>
       </c>
-      <c r="D385" s="78">
+      <c r="D385" s="74">
         <v>24</v>
       </c>
-      <c r="E385" s="78">
+      <c r="E385" s="74">
         <f t="shared" si="97"/>
         <v>5.1129100979974435E-3</v>
       </c>
-      <c r="F385" s="78">
+      <c r="F385" s="74">
         <v>518</v>
       </c>
-      <c r="G385" s="78">
+      <c r="G385" s="74">
         <f t="shared" si="98"/>
         <v>0.11035364294844482</v>
       </c>
-      <c r="H385" s="77">
+      <c r="H385" s="73">
         <v>21</v>
       </c>
-      <c r="I385" s="79">
+      <c r="I385" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="76" t="s">
+      <c r="J385" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B386" s="77">
+      <c r="B386" s="73">
         <v>4</v>
       </c>
-      <c r="C386" s="77">
+      <c r="C386" s="73">
         <v>4694</v>
       </c>
-      <c r="D386" s="78">
+      <c r="D386" s="74">
         <v>18</v>
       </c>
-      <c r="E386" s="78">
+      <c r="E386" s="74">
         <f t="shared" si="97"/>
         <v>3.8346825734980826E-3</v>
       </c>
-      <c r="F386" s="78">
+      <c r="F386" s="74">
         <v>472</v>
       </c>
-      <c r="G386" s="78">
+      <c r="G386" s="74">
         <f t="shared" si="98"/>
         <v>0.10055389859394973</v>
       </c>
-      <c r="H386" s="77">
+      <c r="H386" s="73">
         <v>21</v>
       </c>
-      <c r="I386" s="79">
+      <c r="I386" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="76" t="s">
+      <c r="J386" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B387" s="77">
+      <c r="B387" s="73">
         <v>4</v>
       </c>
-      <c r="C387" s="77">
+      <c r="C387" s="73">
         <v>4694</v>
       </c>
-      <c r="D387" s="78">
+      <c r="D387" s="74">
         <v>9</v>
       </c>
-      <c r="E387" s="78">
+      <c r="E387" s="74">
         <f t="shared" si="97"/>
         <v>1.9173412867490413E-3</v>
       </c>
-      <c r="F387" s="78">
+      <c r="F387" s="74">
         <v>423</v>
       </c>
-      <c r="G387" s="78">
+      <c r="G387" s="74">
         <f t="shared" si="98"/>
         <v>9.0115040477204936E-2</v>
       </c>
-      <c r="H387" s="77">
+      <c r="H387" s="73">
         <v>21</v>
       </c>
-      <c r="I387" s="79">
+      <c r="I387" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="76" t="s">
+      <c r="J387" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B388" s="77">
+      <c r="B388" s="73">
         <v>4</v>
       </c>
-      <c r="C388" s="77">
+      <c r="C388" s="73">
         <v>4694</v>
       </c>
-      <c r="D388" s="78">
+      <c r="D388" s="74">
         <v>10</v>
       </c>
-      <c r="E388" s="78">
+      <c r="E388" s="74">
         <f t="shared" si="97"/>
         <v>2.1303792074989347E-3</v>
       </c>
-      <c r="F388" s="78">
+      <c r="F388" s="74">
         <v>398</v>
       </c>
-      <c r="G388" s="78">
+      <c r="G388" s="74">
         <f t="shared" si="98"/>
         <v>8.4789092458457602E-2</v>
       </c>
-      <c r="H388" s="77">
+      <c r="H388" s="73">
         <v>21</v>
       </c>
-      <c r="I388" s="79">
+      <c r="I388" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="76" t="s">
+      <c r="J388" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B389" s="77">
+      <c r="B389" s="73">
         <v>4</v>
       </c>
-      <c r="C389" s="77">
+      <c r="C389" s="73">
         <v>4694</v>
       </c>
-      <c r="D389" s="78">
+      <c r="D389" s="74">
         <v>6</v>
       </c>
-      <c r="E389" s="78">
+      <c r="E389" s="74">
         <f t="shared" si="97"/>
         <v>1.2782275244993609E-3</v>
       </c>
-      <c r="F389" s="78">
+      <c r="F389" s="74">
         <v>374</v>
       </c>
-      <c r="G389" s="78">
+      <c r="G389" s="74">
         <f t="shared" si="98"/>
         <v>7.967618236046016E-2</v>
       </c>
-      <c r="H389" s="77">
+      <c r="H389" s="73">
         <v>21</v>
       </c>
-      <c r="I389" s="79">
+      <c r="I389" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="76" t="s">
+      <c r="J389" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B390" s="77">
+      <c r="B390" s="73">
         <v>4</v>
       </c>
-      <c r="C390" s="77">
+      <c r="C390" s="73">
         <v>4694</v>
       </c>
-      <c r="D390" s="78">
-        <v>2</v>
-      </c>
-      <c r="E390" s="78">
+      <c r="D390" s="74">
+        <v>2</v>
+      </c>
+      <c r="E390" s="74">
         <f t="shared" si="97"/>
         <v>4.2607584149978694E-4</v>
       </c>
-      <c r="F390" s="78">
+      <c r="F390" s="74">
         <v>362</v>
       </c>
-      <c r="G390" s="78">
+      <c r="G390" s="74">
         <f t="shared" si="98"/>
         <v>7.7119727311461439E-2</v>
       </c>
-      <c r="H390" s="77">
+      <c r="H390" s="73">
         <v>21</v>
       </c>
-      <c r="I390" s="79">
+      <c r="I390" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="76" t="s">
+      <c r="J390" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B391" s="77">
+      <c r="B391" s="73">
         <v>4</v>
       </c>
-      <c r="C391" s="77">
+      <c r="C391" s="73">
         <v>4694</v>
       </c>
-      <c r="D391" s="78">
-        <v>1</v>
-      </c>
-      <c r="E391" s="78">
+      <c r="D391" s="74">
+        <v>1</v>
+      </c>
+      <c r="E391" s="74">
         <f t="shared" si="97"/>
         <v>2.1303792074989347E-4</v>
       </c>
-      <c r="F391" s="78">
+      <c r="F391" s="74">
         <v>358</v>
       </c>
-      <c r="G391" s="78">
+      <c r="G391" s="74">
         <f t="shared" si="98"/>
         <v>7.626757562846187E-2</v>
       </c>
-      <c r="H391" s="77">
+      <c r="H391" s="73">
         <v>21</v>
       </c>
-      <c r="I391" s="79">
+      <c r="I391" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="76" t="s">
+      <c r="J391" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B392" s="77">
+      <c r="B392" s="73">
         <v>4</v>
       </c>
-      <c r="C392" s="77">
+      <c r="C392" s="73">
         <v>4694</v>
       </c>
-      <c r="D392" s="78">
+      <c r="D392" s="74">
         <v>29</v>
       </c>
-      <c r="E392" s="78">
+      <c r="E392" s="74">
         <f t="shared" si="97"/>
         <v>6.1780997017469108E-3</v>
       </c>
-      <c r="F392" s="78">
+      <c r="F392" s="74">
         <v>306</v>
       </c>
-      <c r="G392" s="78">
+      <c r="G392" s="74">
         <f t="shared" si="98"/>
         <v>6.5189603749467404E-2</v>
       </c>
-      <c r="H392" s="77">
+      <c r="H392" s="73">
         <v>21</v>
       </c>
-      <c r="I392" s="79">
+      <c r="I392" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="76" t="s">
+      <c r="J392" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B393" s="77">
+      <c r="B393" s="73">
         <v>4</v>
       </c>
-      <c r="C393" s="77">
+      <c r="C393" s="73">
         <v>4694</v>
       </c>
-      <c r="D393" s="78">
+      <c r="D393" s="74">
         <v>26</v>
       </c>
-      <c r="E393" s="78">
+      <c r="E393" s="74">
         <f t="shared" si="97"/>
         <v>5.5389859394972306E-3</v>
       </c>
-      <c r="F393" s="78">
+      <c r="F393" s="74">
         <v>253</v>
       </c>
-      <c r="G393" s="78">
+      <c r="G393" s="74">
         <f t="shared" si="98"/>
         <v>5.3898593949723052E-2</v>
       </c>
-      <c r="H393" s="77">
+      <c r="H393" s="73">
         <v>21</v>
       </c>
-      <c r="I393" s="79">
+      <c r="I393" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="76" t="s">
+      <c r="J393" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B394" s="77">
+      <c r="B394" s="73">
         <v>4</v>
       </c>
-      <c r="C394" s="77">
+      <c r="C394" s="73">
         <v>4694</v>
       </c>
-      <c r="D394" s="78">
+      <c r="D394" s="74">
         <v>9</v>
       </c>
-      <c r="E394" s="78">
+      <c r="E394" s="74">
         <f t="shared" si="97"/>
         <v>1.9173412867490413E-3</v>
       </c>
-      <c r="F394" s="78">
+      <c r="F394" s="74">
         <v>196</v>
       </c>
-      <c r="G394" s="78">
+      <c r="G394" s="74">
         <f t="shared" si="98"/>
         <v>4.1755432466979124E-2</v>
       </c>
-      <c r="H394" s="77">
+      <c r="H394" s="73">
         <v>21</v>
       </c>
-      <c r="I394" s="79">
+      <c r="I394" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="76" t="s">
+      <c r="J394" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B395" s="77">
+      <c r="B395" s="73">
         <v>4</v>
       </c>
-      <c r="C395" s="77">
+      <c r="C395" s="73">
         <v>4694</v>
       </c>
-      <c r="D395" s="78">
+      <c r="D395" s="74">
         <v>13</v>
       </c>
-      <c r="E395" s="78">
+      <c r="E395" s="74">
         <f t="shared" si="97"/>
         <v>2.7694929697486153E-3</v>
       </c>
-      <c r="F395" s="78">
+      <c r="F395" s="74">
         <v>179</v>
       </c>
-      <c r="G395" s="78">
+      <c r="G395" s="74">
         <f t="shared" si="98"/>
         <v>3.8133787814230935E-2</v>
       </c>
-      <c r="H395" s="77">
+      <c r="H395" s="73">
         <v>21</v>
       </c>
-      <c r="I395" s="79">
+      <c r="I395" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="76" t="s">
+      <c r="J395" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B396" s="77">
+      <c r="B396" s="73">
         <v>4</v>
       </c>
-      <c r="C396" s="77">
+      <c r="C396" s="73">
         <v>4694</v>
       </c>
-      <c r="D396" s="78">
-        <v>2</v>
-      </c>
-      <c r="E396" s="78">
+      <c r="D396" s="74">
+        <v>2</v>
+      </c>
+      <c r="E396" s="74">
         <f t="shared" si="97"/>
         <v>4.2607584149978694E-4</v>
       </c>
-      <c r="F396" s="78">
+      <c r="F396" s="74">
         <v>152</v>
       </c>
-      <c r="G396" s="78">
+      <c r="G396" s="74">
         <f t="shared" si="98"/>
         <v>3.238176395398381E-2</v>
       </c>
-      <c r="H396" s="77">
+      <c r="H396" s="73">
         <v>21</v>
       </c>
-      <c r="I396" s="79">
+      <c r="I396" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="76" t="s">
+      <c r="J396" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B397" s="77">
+      <c r="B397" s="73">
         <v>4</v>
       </c>
-      <c r="C397" s="77">
+      <c r="C397" s="73">
         <v>4694</v>
       </c>
-      <c r="D397" s="78">
+      <c r="D397" s="74">
         <v>3</v>
       </c>
-      <c r="E397" s="78">
+      <c r="E397" s="74">
         <f t="shared" si="97"/>
         <v>6.3911376224968044E-4</v>
       </c>
-      <c r="F397" s="78">
+      <c r="F397" s="74">
         <v>144</v>
       </c>
-      <c r="G397" s="78">
+      <c r="G397" s="74">
         <f t="shared" si="98"/>
         <v>3.0677460587984661E-2</v>
       </c>
-      <c r="H397" s="77">
+      <c r="H397" s="73">
         <v>21</v>
       </c>
-      <c r="I397" s="79">
+      <c r="I397" s="75">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A398" s="80" t="s">
+      <c r="J397" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B398" s="81">
+      <c r="B398" s="77">
         <v>4</v>
       </c>
-      <c r="C398" s="81">
+      <c r="C398" s="77">
         <v>4694</v>
       </c>
-      <c r="D398" s="82">
-        <v>0</v>
-      </c>
-      <c r="E398" s="82">
+      <c r="D398" s="78">
+        <v>0</v>
+      </c>
+      <c r="E398" s="78">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="F398" s="82">
+      <c r="F398" s="78">
         <v>130</v>
       </c>
-      <c r="G398" s="82">
+      <c r="G398" s="78">
         <f t="shared" si="98"/>
         <v>2.7694929697486152E-2</v>
       </c>
-      <c r="H398" s="81">
+      <c r="H398" s="77">
         <v>21</v>
       </c>
-      <c r="I398" s="83">
+      <c r="I398" s="79">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J398" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
         <v>27</v>
       </c>
@@ -13563,8 +14824,11 @@
       <c r="I399" s="53">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J399" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="12" t="s">
         <v>27</v>
       </c>
@@ -13594,8 +14858,11 @@
       <c r="I400" s="54">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J400" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="12" t="s">
         <v>27</v>
       </c>
@@ -13625,8 +14892,11 @@
       <c r="I401" s="54">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J401" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="13" t="s">
         <v>27</v>
       </c>
@@ -13656,8 +14926,11 @@
       <c r="I402" s="57">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J402" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
         <v>27</v>
       </c>
@@ -13687,8 +14960,11 @@
       <c r="I403" s="53">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J403" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="12" t="s">
         <v>27</v>
       </c>
@@ -13718,8 +14994,11 @@
       <c r="I404" s="54">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J404" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="13" t="s">
         <v>27</v>
       </c>
@@ -13749,8 +15028,11 @@
       <c r="I405" s="57">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J405" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="14" t="s">
         <v>27</v>
       </c>
@@ -13780,8 +15062,11 @@
       <c r="I406" s="47">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J406" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="18" t="s">
         <v>27</v>
       </c>
@@ -13811,8 +15096,11 @@
       <c r="I407" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J407" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="18" t="s">
         <v>27</v>
       </c>
@@ -13842,8 +15130,11 @@
       <c r="I408" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J408" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="18" t="s">
         <v>27</v>
       </c>
@@ -13873,8 +15164,11 @@
       <c r="I409" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J409" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="18" t="s">
         <v>27</v>
       </c>
@@ -13904,8 +15198,11 @@
       <c r="I410" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J410" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="18" t="s">
         <v>27</v>
       </c>
@@ -13935,8 +15232,11 @@
       <c r="I411" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J411" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="18" t="s">
         <v>27</v>
       </c>
@@ -13966,8 +15266,11 @@
       <c r="I412" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J412" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="18" t="s">
         <v>27</v>
       </c>
@@ -13997,8 +15300,11 @@
       <c r="I413" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J413" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="18" t="s">
         <v>27</v>
       </c>
@@ -14028,8 +15334,11 @@
       <c r="I414" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J414" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="18" t="s">
         <v>27</v>
       </c>
@@ -14059,8 +15368,11 @@
       <c r="I415" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J415" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="18" t="s">
         <v>27</v>
       </c>
@@ -14090,8 +15402,11 @@
       <c r="I416" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J416" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="18" t="s">
         <v>27</v>
       </c>
@@ -14121,8 +15436,11 @@
       <c r="I417" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J417" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="18" t="s">
         <v>27</v>
       </c>
@@ -14152,8 +15470,11 @@
       <c r="I418" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J418" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="18" t="s">
         <v>27</v>
       </c>
@@ -14183,8 +15504,11 @@
       <c r="I419" s="48">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J419" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="21" t="s">
         <v>27</v>
       </c>
@@ -14214,8 +15538,11 @@
       <c r="I420" s="49">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J420" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
         <v>28</v>
       </c>
@@ -14245,8 +15572,11 @@
       <c r="I421" s="53">
         <v>27</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J421" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="12" t="s">
         <v>28</v>
       </c>
@@ -14276,8 +15606,11 @@
       <c r="I422" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J422" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="12" t="s">
         <v>28</v>
       </c>
@@ -14307,8 +15640,11 @@
       <c r="I423" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J423" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="12" t="s">
         <v>28</v>
       </c>
@@ -14338,8 +15674,11 @@
       <c r="I424" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J424" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="12" t="s">
         <v>28</v>
       </c>
@@ -14369,8 +15708,11 @@
       <c r="I425" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J425" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="12" t="s">
         <v>28</v>
       </c>
@@ -14400,8 +15742,11 @@
       <c r="I426" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J426" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="12" t="s">
         <v>28</v>
       </c>
@@ -14431,8 +15776,11 @@
       <c r="I427" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J427" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="12" t="s">
         <v>28</v>
       </c>
@@ -14462,8 +15810,11 @@
       <c r="I428" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J428" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="12" t="s">
         <v>28</v>
       </c>
@@ -14493,8 +15844,11 @@
       <c r="I429" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J429" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="12" t="s">
         <v>28</v>
       </c>
@@ -14524,8 +15878,11 @@
       <c r="I430" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J430" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="12" t="s">
         <v>28</v>
       </c>
@@ -14555,8 +15912,11 @@
       <c r="I431" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J431" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="12" t="s">
         <v>28</v>
       </c>
@@ -14586,8 +15946,11 @@
       <c r="I432" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J432" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="12" t="s">
         <v>28</v>
       </c>
@@ -14617,8 +15980,11 @@
       <c r="I433" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J433" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="12" t="s">
         <v>28</v>
       </c>
@@ -14648,8 +16014,11 @@
       <c r="I434" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J434" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="12" t="s">
         <v>28</v>
       </c>
@@ -14679,8 +16048,11 @@
       <c r="I435" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J435" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="12" t="s">
         <v>28</v>
       </c>
@@ -14710,8 +16082,11 @@
       <c r="I436" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J436" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="12" t="s">
         <v>28</v>
       </c>
@@ -14741,8 +16116,11 @@
       <c r="I437" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J437" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="12" t="s">
         <v>28</v>
       </c>
@@ -14772,8 +16150,11 @@
       <c r="I438" s="54">
         <v>27</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J438" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="13" t="s">
         <v>28</v>
       </c>
@@ -14803,8 +16184,11 @@
       <c r="I439" s="57">
         <v>27</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J439" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="14" t="s">
         <v>28</v>
       </c>
@@ -14834,8 +16218,11 @@
       <c r="I440" s="47">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J440" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="18" t="s">
         <v>28</v>
       </c>
@@ -14865,8 +16252,11 @@
       <c r="I441" s="48">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J441" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="18" t="s">
         <v>28</v>
       </c>
@@ -14896,8 +16286,11 @@
       <c r="I442" s="48">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J442" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="18" t="s">
         <v>28</v>
       </c>
@@ -14927,8 +16320,11 @@
       <c r="I443" s="48">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J443" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="21" t="s">
         <v>28</v>
       </c>
@@ -14958,347 +16354,143 @@
       <c r="I444" s="49">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="84" t="s">
+      <c r="J444" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B445" s="85">
+      <c r="B445" s="81">
         <v>3</v>
       </c>
-      <c r="C445" s="85">
+      <c r="C445" s="81">
         <v>4458</v>
       </c>
-      <c r="D445" s="86">
-        <v>0</v>
-      </c>
-      <c r="E445" s="86">
+      <c r="D445" s="82">
+        <v>0</v>
+      </c>
+      <c r="E445" s="82">
         <f t="shared" ref="E445:E446" si="104">D445/C445</f>
         <v>0</v>
       </c>
-      <c r="F445" s="86">
+      <c r="F445" s="82">
         <v>4458</v>
       </c>
-      <c r="G445" s="86">
+      <c r="G445" s="82">
         <f t="shared" ref="G445:G446" si="105">F445/C445</f>
         <v>1</v>
       </c>
-      <c r="H445" s="85">
-        <v>1</v>
-      </c>
-      <c r="I445" s="87">
+      <c r="H445" s="81">
+        <v>1</v>
+      </c>
+      <c r="I445" s="83">
         <v>1970</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A446" s="63" t="s">
+      <c r="J445" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B446" s="64">
+      <c r="B446" s="94">
         <v>4</v>
       </c>
-      <c r="C446" s="64">
+      <c r="C446" s="94">
         <v>4458</v>
       </c>
-      <c r="D446" s="65">
-        <v>0</v>
-      </c>
-      <c r="E446" s="65">
+      <c r="D446" s="95">
+        <v>0</v>
+      </c>
+      <c r="E446" s="95">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="F446" s="65">
+      <c r="F446" s="95">
         <v>4458</v>
       </c>
-      <c r="G446" s="65">
+      <c r="G446" s="95">
         <f t="shared" si="105"/>
         <v>1</v>
       </c>
-      <c r="H446" s="64">
-        <v>1</v>
-      </c>
-      <c r="I446" s="66">
+      <c r="H446" s="94">
+        <v>1</v>
+      </c>
+      <c r="I446" s="96">
         <v>1740</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A447" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B447" s="10">
-        <v>1</v>
-      </c>
-      <c r="C447" s="10">
-        <v>12658</v>
-      </c>
-      <c r="D447" s="11">
-        <v>279</v>
-      </c>
-      <c r="E447" s="11">
-        <f t="shared" si="82"/>
-        <v>2.2041396745141412E-2</v>
-      </c>
-      <c r="F447" s="11">
-        <v>12658</v>
-      </c>
-      <c r="G447" s="11">
-        <f t="shared" si="101"/>
-        <v>1</v>
-      </c>
-      <c r="H447" s="10">
-        <v>4</v>
-      </c>
-      <c r="I447" s="53">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A448" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B448" s="3">
-        <v>1</v>
-      </c>
-      <c r="C448" s="3">
-        <v>12658</v>
-      </c>
-      <c r="D448" s="4">
-        <v>78</v>
-      </c>
-      <c r="E448" s="4">
-        <f t="shared" si="82"/>
-        <v>6.1621109179965236E-3</v>
-      </c>
-      <c r="F448" s="4">
-        <v>718</v>
-      </c>
-      <c r="G448" s="4">
-        <f t="shared" si="101"/>
-        <v>5.6723021014378261E-2</v>
-      </c>
-      <c r="H448" s="3">
-        <v>4</v>
-      </c>
-      <c r="I448" s="54">
-        <v>5.76</v>
-      </c>
+      <c r="J446" s="91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+      <c r="I447" s="1"/>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+      <c r="I448" s="1"/>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A449" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B449" s="3">
-        <v>1</v>
-      </c>
-      <c r="C449" s="3">
-        <v>12658</v>
-      </c>
-      <c r="D449" s="4">
-        <v>6</v>
-      </c>
-      <c r="E449" s="4">
-        <f t="shared" si="82"/>
-        <v>4.7400853215357879E-4</v>
-      </c>
-      <c r="F449" s="4">
-        <v>17</v>
-      </c>
-      <c r="G449" s="4">
-        <f t="shared" si="101"/>
-        <v>1.3430241744351399E-3</v>
-      </c>
-      <c r="H449" s="3">
-        <v>4</v>
-      </c>
-      <c r="I449" s="54">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A450" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B450" s="7">
-        <v>1</v>
-      </c>
-      <c r="C450" s="7">
-        <v>12658</v>
-      </c>
-      <c r="D450" s="8">
-        <v>0</v>
-      </c>
-      <c r="E450" s="8">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="F450" s="8">
-        <v>1</v>
-      </c>
-      <c r="G450" s="8">
-        <f t="shared" si="101"/>
-        <v>7.9001422025596461E-5</v>
-      </c>
-      <c r="H450" s="7">
-        <v>4</v>
-      </c>
-      <c r="I450" s="57">
-        <v>5.76</v>
-      </c>
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+      <c r="I449" s="1"/>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+      <c r="I450" s="1"/>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A451" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B451" s="10">
-        <v>2</v>
-      </c>
-      <c r="C451" s="10">
-        <v>17110</v>
-      </c>
-      <c r="D451" s="11">
-        <v>379</v>
-      </c>
-      <c r="E451" s="11">
-        <f t="shared" ref="E451:E455" si="106">D451/C451</f>
-        <v>2.2150789012273523E-2</v>
-      </c>
-      <c r="F451" s="11">
-        <v>17110</v>
-      </c>
-      <c r="G451" s="11">
-        <f t="shared" ref="G451:G454" si="107">F451/C451</f>
-        <v>1</v>
-      </c>
-      <c r="H451" s="10">
-        <v>5</v>
-      </c>
-      <c r="I451" s="53">
-        <v>6.72</v>
-      </c>
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+      <c r="I451" s="1"/>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A452" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B452" s="3">
-        <v>2</v>
-      </c>
-      <c r="C452" s="3">
-        <v>17110</v>
-      </c>
-      <c r="D452" s="4">
-        <v>114</v>
-      </c>
-      <c r="E452" s="4">
-        <f t="shared" si="106"/>
-        <v>6.6627703097603738E-3</v>
-      </c>
-      <c r="F452" s="4">
-        <v>1003</v>
-      </c>
-      <c r="G452" s="4">
-        <f t="shared" si="107"/>
-        <v>5.8620689655172413E-2</v>
-      </c>
-      <c r="H452" s="3">
-        <v>5</v>
-      </c>
-      <c r="I452" s="54">
-        <v>6.72</v>
-      </c>
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+      <c r="I452" s="1"/>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A453" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B453" s="3">
-        <v>2</v>
-      </c>
-      <c r="C453" s="3">
-        <v>17110</v>
-      </c>
-      <c r="D453" s="4">
-        <v>6</v>
-      </c>
-      <c r="E453" s="4">
-        <f t="shared" si="106"/>
-        <v>3.5067212156633545E-4</v>
-      </c>
-      <c r="F453" s="4">
-        <v>25</v>
-      </c>
-      <c r="G453" s="4">
-        <f t="shared" si="107"/>
-        <v>1.4611338398597311E-3</v>
-      </c>
-      <c r="H453" s="3">
-        <v>5</v>
-      </c>
-      <c r="I453" s="54">
-        <v>6.72</v>
-      </c>
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+      <c r="I453" s="1"/>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A454" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B454" s="3">
-        <v>2</v>
-      </c>
-      <c r="C454" s="3">
-        <v>17110</v>
-      </c>
-      <c r="D454" s="4">
-        <v>1</v>
-      </c>
-      <c r="E454" s="4">
-        <f t="shared" si="106"/>
-        <v>5.8445353594389249E-5</v>
-      </c>
-      <c r="F454" s="4">
-        <v>3</v>
-      </c>
-      <c r="G454" s="4">
-        <f t="shared" si="107"/>
-        <v>1.7533606078316773E-4</v>
-      </c>
-      <c r="H454" s="3">
-        <v>5</v>
-      </c>
-      <c r="I454" s="54">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A455" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B455" s="5">
-        <v>2</v>
-      </c>
-      <c r="C455" s="5">
-        <v>17110</v>
-      </c>
-      <c r="D455" s="6">
-        <v>0</v>
-      </c>
-      <c r="E455" s="6">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="F455" s="6">
-        <v>1</v>
-      </c>
-      <c r="G455" s="6">
-        <f t="shared" ref="G455" si="108">F455/C455</f>
-        <v>5.8445353594389249E-5</v>
-      </c>
-      <c r="H455" s="5">
-        <v>5</v>
-      </c>
-      <c r="I455" s="56">
-        <v>6.72</v>
-      </c>
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+      <c r="I454" s="1"/>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+      <c r="I455" s="1"/>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+      <c r="I456" s="1"/>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+      <c r="I457" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/experiments/real_data_experiments/results/results_single_layers.xlsx
+++ b/experiments/real_data_experiments/results/results_single_layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzne\Documents\ACTIVE_PROJECTS\research\experiments\real_data_experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F3B521-439E-4F2B-9EFA-82F0FAB09810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5405561-DDA9-42E4-8089-739E49FB9EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D3DA8771-1432-4179-AD61-E06224215FC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="36">
   <si>
     <t>Air_Train</t>
   </si>
@@ -140,16 +140,10 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Neural</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
     <t>Internet</t>
   </si>
   <si>
-    <t>Genetic</t>
+    <t>Biological</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1239,8 @@
   <dimension ref="A1:J457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D451" sqref="D451"/>
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J447" sqref="J447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1254,7 @@
     <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -3027,7 +3021,7 @@
         <v>4.09</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3061,7 +3055,7 @@
         <v>4.09</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3095,7 +3089,7 @@
         <v>4.09</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3129,7 +3123,7 @@
         <v>4.09</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3163,7 +3157,7 @@
         <v>4.09</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3197,7 +3191,7 @@
         <v>4.09</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3231,7 +3225,7 @@
         <v>4.09</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3265,7 +3259,7 @@
         <v>4.09</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3299,7 +3293,7 @@
         <v>4.09</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3333,7 +3327,7 @@
         <v>4.09</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3367,7 +3361,7 @@
         <v>4.09</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3401,7 +3395,7 @@
         <v>4.09</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3435,7 +3429,7 @@
         <v>6.83</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3469,7 +3463,7 @@
         <v>6.83</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3503,7 +3497,7 @@
         <v>6.83</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3537,7 +3531,7 @@
         <v>6.83</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3571,7 +3565,7 @@
         <v>6.83</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3605,7 +3599,7 @@
         <v>6.83</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3639,7 +3633,7 @@
         <v>6.83</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3673,7 +3667,7 @@
         <v>6.83</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3707,7 +3701,7 @@
         <v>6.83</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3741,7 +3735,7 @@
         <v>6.83</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3775,7 +3769,7 @@
         <v>6.83</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3809,7 +3803,7 @@
         <v>6.83</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3843,7 +3837,7 @@
         <v>12.25</v>
       </c>
       <c r="J76" s="91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3877,7 +3871,7 @@
         <v>12.25</v>
       </c>
       <c r="J77" s="91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -3911,7 +3905,7 @@
         <v>12.25</v>
       </c>
       <c r="J78" s="91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3945,7 +3939,7 @@
         <v>12.25</v>
       </c>
       <c r="J79" s="91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -4285,7 +4279,7 @@
         <v>5.41</v>
       </c>
       <c r="J89" s="91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4319,7 +4313,7 @@
         <v>5.41</v>
       </c>
       <c r="J90" s="91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -4353,7 +4347,7 @@
         <v>5.48</v>
       </c>
       <c r="J91" s="92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -4387,7 +4381,7 @@
         <v>5.48</v>
       </c>
       <c r="J92" s="92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4421,7 +4415,7 @@
         <v>5.48</v>
       </c>
       <c r="J93" s="92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4455,7 +4449,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4489,7 +4483,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4523,7 +4517,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4557,7 +4551,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4591,7 +4585,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4625,7 +4619,7 @@
         <v>5.21</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4659,7 +4653,7 @@
         <v>5.21</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4693,7 +4687,7 @@
         <v>5.21</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4727,7 +4721,7 @@
         <v>5.21</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -9589,7 +9583,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="J245" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -9623,7 +9617,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="J246" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -9657,7 +9651,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="J247" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -9691,7 +9685,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="J248" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9725,7 +9719,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="J249" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -9759,7 +9753,7 @@
         <v>2.97</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -9793,7 +9787,7 @@
         <v>2.97</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -9827,7 +9821,7 @@
         <v>2.97</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -9861,7 +9855,7 @@
         <v>2.97</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -9895,7 +9889,7 @@
         <v>2.97</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9929,7 +9923,7 @@
         <v>2.97</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -9963,7 +9957,7 @@
         <v>2</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -9997,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -10031,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10065,7 +10059,7 @@
         <v>2</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -10099,7 +10093,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -10133,7 +10127,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10167,7 +10161,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -10201,7 +10195,7 @@
         <v>1.44</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10235,7 +10229,7 @@
         <v>1.44</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="265" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -10269,7 +10263,7 @@
         <v>1.73</v>
       </c>
       <c r="J265" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -10303,7 +10297,7 @@
         <v>1.73</v>
       </c>
       <c r="J266" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="267" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10337,7 +10331,7 @@
         <v>1.73</v>
       </c>
       <c r="J267" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -10371,7 +10365,7 @@
         <v>1.59</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10405,7 +10399,7 @@
         <v>1.59</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -10439,7 +10433,7 @@
         <v>1.72</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10473,7 +10467,7 @@
         <v>1.72</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -10507,7 +10501,7 @@
         <v>1.2</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10541,7 +10535,7 @@
         <v>1.2</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -10575,7 +10569,7 @@
         <v>1.71</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10609,7 +10603,7 @@
         <v>1.71</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10643,7 +10637,7 @@
         <v>1.2</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -10677,7 +10671,7 @@
         <v>3.5</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -10711,7 +10705,7 @@
         <v>3.5</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -10745,7 +10739,7 @@
         <v>3.5</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10779,7 +10773,7 @@
         <v>3.5</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -10813,7 +10807,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10847,7 +10841,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -10881,7 +10875,7 @@
         <v>4.04</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -10915,7 +10909,7 @@
         <v>4.04</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -10949,7 +10943,7 @@
         <v>4.04</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10983,7 +10977,7 @@
         <v>4.04</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -11017,7 +11011,7 @@
         <v>2.67</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -11051,7 +11045,7 @@
         <v>2.67</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11085,7 +11079,7 @@
         <v>2.67</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -11119,7 +11113,7 @@
         <v>1.17</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11153,7 +11147,7 @@
         <v>1.17</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -11187,7 +11181,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11221,7 +11215,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="294" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11255,7 +11249,7 @@
         <v>6.52</v>
       </c>
       <c r="J294" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11289,7 +11283,7 @@
         <v>6.52</v>
       </c>
       <c r="J295" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="296" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11306,7 +11300,7 @@
         <v>360</v>
       </c>
       <c r="E296" s="20">
-        <f t="shared" ref="E296:E450" si="82">D296/C296</f>
+        <f t="shared" ref="E296:E437" si="82">D296/C296</f>
         <v>4.8939641109298535E-2</v>
       </c>
       <c r="F296" s="20">
@@ -11323,7 +11317,7 @@
         <v>6.52</v>
       </c>
       <c r="J296" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="297" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11357,7 +11351,7 @@
         <v>6.52</v>
       </c>
       <c r="J297" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="298" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11391,7 +11385,7 @@
         <v>6.52</v>
       </c>
       <c r="J298" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="299" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11425,7 +11419,7 @@
         <v>6.52</v>
       </c>
       <c r="J299" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -11459,7 +11453,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -11493,7 +11487,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -11527,7 +11521,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11561,7 +11555,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -11595,7 +11589,7 @@
         <v>3.77</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -11629,7 +11623,7 @@
         <v>3.77</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -11663,7 +11657,7 @@
         <v>3.77</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -11697,7 +11691,7 @@
         <v>3.77</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11731,7 +11725,7 @@
         <v>3.77</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="309" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11765,7 +11759,7 @@
         <v>8.99</v>
       </c>
       <c r="J309" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="310" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11799,7 +11793,7 @@
         <v>8.99</v>
       </c>
       <c r="J310" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="311" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11833,7 +11827,7 @@
         <v>8.99</v>
       </c>
       <c r="J311" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="312" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11867,7 +11861,7 @@
         <v>8.99</v>
       </c>
       <c r="J312" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="313" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11901,7 +11895,7 @@
         <v>8.99</v>
       </c>
       <c r="J313" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="314" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11935,7 +11929,7 @@
         <v>8.99</v>
       </c>
       <c r="J314" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="315" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -11969,7 +11963,7 @@
         <v>8.99</v>
       </c>
       <c r="J315" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="316" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12003,7 +11997,7 @@
         <v>8.99</v>
       </c>
       <c r="J316" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="317" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12037,7 +12031,7 @@
         <v>8.99</v>
       </c>
       <c r="J317" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="318" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12071,7 +12065,7 @@
         <v>8.99</v>
       </c>
       <c r="J318" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -12105,7 +12099,7 @@
         <v>1.67</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12139,7 +12133,7 @@
         <v>1.67</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -12173,7 +12167,7 @@
         <v>1.83</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12207,7 +12201,7 @@
         <v>1.83</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -12241,7 +12235,7 @@
         <v>1.17</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12275,7 +12269,7 @@
         <v>1.17</v>
       </c>
       <c r="J324" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="325" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12309,7 +12303,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J325" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12343,7 +12337,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J326" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="327" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12377,7 +12371,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J327" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12411,7 +12405,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J328" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="329" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12445,7 +12439,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J329" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12479,7 +12473,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J330" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="331" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12513,7 +12507,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J331" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="332" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12547,7 +12541,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J332" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="333" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12581,7 +12575,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J333" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="334" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12615,7 +12609,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J334" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="335" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12649,7 +12643,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J335" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="336" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12683,7 +12677,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J336" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="337" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -12717,7 +12711,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J337" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="338" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12751,7 +12745,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J338" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -12785,7 +12779,7 @@
         <v>13.6</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -12819,7 +12813,7 @@
         <v>13.6</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -12853,7 +12847,7 @@
         <v>13.6</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -12887,7 +12881,7 @@
         <v>13.6</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -12921,7 +12915,7 @@
         <v>13.6</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -12955,7 +12949,7 @@
         <v>13.6</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -12989,7 +12983,7 @@
         <v>13.6</v>
       </c>
       <c r="J345" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13023,7 +13017,7 @@
         <v>13.6</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13057,7 +13051,7 @@
         <v>13.6</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13091,7 +13085,7 @@
         <v>13.6</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -13125,7 +13119,7 @@
         <v>13.6</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -13159,7 +13153,7 @@
         <v>13.6</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13193,7 +13187,7 @@
         <v>13.6</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -13227,7 +13221,7 @@
         <v>13.6</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -13261,7 +13255,7 @@
         <v>13.6</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -13295,7 +13289,7 @@
         <v>13.6</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -13329,7 +13323,7 @@
         <v>13.6</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -13363,7 +13357,7 @@
         <v>13.6</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -13397,7 +13391,7 @@
         <v>13.6</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -13431,7 +13425,7 @@
         <v>13.6</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -13465,7 +13459,7 @@
         <v>13.6</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -13499,7 +13493,7 @@
         <v>13.6</v>
       </c>
       <c r="J360" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -13533,7 +13527,7 @@
         <v>13.6</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -13567,7 +13561,7 @@
         <v>13.6</v>
       </c>
       <c r="J362" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="363" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13601,7 +13595,7 @@
         <v>13.6</v>
       </c>
       <c r="J363" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="364" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13635,7 +13629,7 @@
         <v>10.9</v>
       </c>
       <c r="J364" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="365" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13669,7 +13663,7 @@
         <v>10.9</v>
       </c>
       <c r="J365" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="366" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13703,7 +13697,7 @@
         <v>10.9</v>
       </c>
       <c r="J366" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="367" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13737,7 +13731,7 @@
         <v>10.9</v>
       </c>
       <c r="J367" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="368" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13771,7 +13765,7 @@
         <v>10.9</v>
       </c>
       <c r="J368" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="369" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13805,7 +13799,7 @@
         <v>10.9</v>
       </c>
       <c r="J369" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="370" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13839,7 +13833,7 @@
         <v>10.9</v>
       </c>
       <c r="J370" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="371" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13873,7 +13867,7 @@
         <v>10.9</v>
       </c>
       <c r="J371" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="372" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13907,7 +13901,7 @@
         <v>10.9</v>
       </c>
       <c r="J372" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="373" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13941,7 +13935,7 @@
         <v>10.9</v>
       </c>
       <c r="J373" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="374" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -13975,7 +13969,7 @@
         <v>10.9</v>
       </c>
       <c r="J374" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="375" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -14009,7 +14003,7 @@
         <v>10.9</v>
       </c>
       <c r="J375" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="376" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -14043,7 +14037,7 @@
         <v>10.9</v>
       </c>
       <c r="J376" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="377" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14077,7 +14071,7 @@
         <v>10.9</v>
       </c>
       <c r="J377" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="378" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14111,7 +14105,7 @@
         <v>14.5</v>
       </c>
       <c r="J378" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="379" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14145,7 +14139,7 @@
         <v>14.5</v>
       </c>
       <c r="J379" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="380" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14179,7 +14173,7 @@
         <v>14.5</v>
       </c>
       <c r="J380" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="381" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14213,7 +14207,7 @@
         <v>14.5</v>
       </c>
       <c r="J381" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="382" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14247,7 +14241,7 @@
         <v>14.5</v>
       </c>
       <c r="J382" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="383" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14281,7 +14275,7 @@
         <v>14.5</v>
       </c>
       <c r="J383" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="384" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14315,7 +14309,7 @@
         <v>14.5</v>
       </c>
       <c r="J384" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="385" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14349,7 +14343,7 @@
         <v>14.5</v>
       </c>
       <c r="J385" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="386" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14383,7 +14377,7 @@
         <v>14.5</v>
       </c>
       <c r="J386" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="387" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14417,7 +14411,7 @@
         <v>14.5</v>
       </c>
       <c r="J387" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="388" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14451,7 +14445,7 @@
         <v>14.5</v>
       </c>
       <c r="J388" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="389" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14485,7 +14479,7 @@
         <v>14.5</v>
       </c>
       <c r="J389" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="390" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14519,7 +14513,7 @@
         <v>14.5</v>
       </c>
       <c r="J390" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="391" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14553,7 +14547,7 @@
         <v>14.5</v>
       </c>
       <c r="J391" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="392" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14587,7 +14581,7 @@
         <v>14.5</v>
       </c>
       <c r="J392" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="393" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14621,7 +14615,7 @@
         <v>14.5</v>
       </c>
       <c r="J393" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="394" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14655,7 +14649,7 @@
         <v>14.5</v>
       </c>
       <c r="J394" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="395" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14689,7 +14683,7 @@
         <v>14.5</v>
       </c>
       <c r="J395" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="396" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14723,7 +14717,7 @@
         <v>14.5</v>
       </c>
       <c r="J396" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="397" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -14757,7 +14751,7 @@
         <v>14.5</v>
       </c>
       <c r="J397" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="398" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14791,7 +14785,7 @@
         <v>14.5</v>
       </c>
       <c r="J398" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
@@ -14825,7 +14819,7 @@
         <v>2.94</v>
       </c>
       <c r="J399" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
@@ -14859,7 +14853,7 @@
         <v>2.94</v>
       </c>
       <c r="J400" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
@@ -14893,7 +14887,7 @@
         <v>2.94</v>
       </c>
       <c r="J401" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="402" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14927,7 +14921,7 @@
         <v>2.94</v>
       </c>
       <c r="J402" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
@@ -14961,7 +14955,7 @@
         <v>2.44</v>
       </c>
       <c r="J403" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
@@ -14995,7 +14989,7 @@
         <v>2.44</v>
       </c>
       <c r="J404" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="405" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15029,7 +15023,7 @@
         <v>2.44</v>
       </c>
       <c r="J405" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="406" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15063,7 +15057,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J406" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="407" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15097,7 +15091,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J407" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="408" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15131,7 +15125,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J408" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="409" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15165,7 +15159,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J409" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="410" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15199,7 +15193,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J410" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="411" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15233,7 +15227,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J411" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="412" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15267,7 +15261,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J412" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="413" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15301,7 +15295,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J413" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="414" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15335,7 +15329,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J414" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="415" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15369,7 +15363,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J415" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="416" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15403,7 +15397,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J416" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="417" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15437,7 +15431,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J417" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="418" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15471,7 +15465,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J418" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="419" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15505,7 +15499,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J419" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="420" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15539,7 +15533,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="J420" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
@@ -15563,7 +15557,7 @@
         <v>4422</v>
       </c>
       <c r="G421" s="11">
-        <f t="shared" ref="G421:G450" si="101">F421/C421</f>
+        <f t="shared" ref="G421:G437" si="101">F421/C421</f>
         <v>1</v>
       </c>
       <c r="H421" s="10">
@@ -15573,7 +15567,7 @@
         <v>27</v>
       </c>
       <c r="J421" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
@@ -15607,7 +15601,7 @@
         <v>27</v>
       </c>
       <c r="J422" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
@@ -15641,7 +15635,7 @@
         <v>27</v>
       </c>
       <c r="J423" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
@@ -15675,7 +15669,7 @@
         <v>27</v>
       </c>
       <c r="J424" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
@@ -15709,7 +15703,7 @@
         <v>27</v>
       </c>
       <c r="J425" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
@@ -15743,7 +15737,7 @@
         <v>27</v>
       </c>
       <c r="J426" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
@@ -15777,7 +15771,7 @@
         <v>27</v>
       </c>
       <c r="J427" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
@@ -15811,7 +15805,7 @@
         <v>27</v>
       </c>
       <c r="J428" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
@@ -15845,7 +15839,7 @@
         <v>27</v>
       </c>
       <c r="J429" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
@@ -15879,7 +15873,7 @@
         <v>27</v>
       </c>
       <c r="J430" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
@@ -15913,7 +15907,7 @@
         <v>27</v>
       </c>
       <c r="J431" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
@@ -15947,7 +15941,7 @@
         <v>27</v>
       </c>
       <c r="J432" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -15981,7 +15975,7 @@
         <v>27</v>
       </c>
       <c r="J433" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -16015,7 +16009,7 @@
         <v>27</v>
       </c>
       <c r="J434" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
@@ -16049,7 +16043,7 @@
         <v>27</v>
       </c>
       <c r="J435" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -16083,7 +16077,7 @@
         <v>27</v>
       </c>
       <c r="J436" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -16117,7 +16111,7 @@
         <v>27</v>
       </c>
       <c r="J437" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -16151,7 +16145,7 @@
         <v>27</v>
       </c>
       <c r="J438" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="439" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16185,7 +16179,7 @@
         <v>27</v>
       </c>
       <c r="J439" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="440" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -16219,7 +16213,7 @@
         <v>48.7</v>
       </c>
       <c r="J440" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="441" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -16253,7 +16247,7 @@
         <v>48.7</v>
       </c>
       <c r="J441" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="442" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -16287,7 +16281,7 @@
         <v>48.7</v>
       </c>
       <c r="J442" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="443" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -16321,7 +16315,7 @@
         <v>48.7</v>
       </c>
       <c r="J443" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="444" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16355,7 +16349,7 @@
         <v>48.7</v>
       </c>
       <c r="J444" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="445" spans="1:10" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16389,7 +16383,7 @@
         <v>1970</v>
       </c>
       <c r="J445" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="446" spans="1:10" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16423,7 +16417,7 @@
         <v>1740</v>
       </c>
       <c r="J446" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
@@ -16438,60 +16432,15 @@
       <c r="C448" s="1"/>
       <c r="I448" s="1"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A449" s="1"/>
-      <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
-      <c r="I449" s="1"/>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A450" s="1"/>
-      <c r="B450" s="1"/>
-      <c r="C450" s="1"/>
-      <c r="I450" s="1"/>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A451" s="1"/>
-      <c r="B451" s="1"/>
-      <c r="C451" s="1"/>
-      <c r="I451" s="1"/>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
-      <c r="I452" s="1"/>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A453" s="1"/>
-      <c r="B453" s="1"/>
-      <c r="C453" s="1"/>
-      <c r="I453" s="1"/>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A454" s="1"/>
-      <c r="B454" s="1"/>
-      <c r="C454" s="1"/>
-      <c r="I454" s="1"/>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A455" s="1"/>
-      <c r="B455" s="1"/>
-      <c r="C455" s="1"/>
-      <c r="I455" s="1"/>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A456" s="1"/>
-      <c r="B456" s="1"/>
-      <c r="C456" s="1"/>
-      <c r="I456" s="1"/>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A457" s="1"/>
-      <c r="B457" s="1"/>
-      <c r="C457" s="1"/>
-      <c r="I457" s="1"/>
-    </row>
+    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
